--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B8F7C-4236-4D89-AEA6-39A5CE93105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F22DB0-3A45-4BB8-9190-EA1714812E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1477,6 +1477,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LUm2ABqAs1w&amp;ab_channel=VivekanandKhyade-AlgorithmEveryDay</t>
+  </si>
+  <si>
+    <t>yes(11 or 49)</t>
   </si>
 </sst>
 </file>
@@ -2107,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2332,17 +2338,20 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>471</v>
+      <c r="D16" s="19" t="s">
+        <v>465</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>468</v>
+        <v>485</v>
+      </c>
+      <c r="F16" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21">
@@ -3756,7 +3765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="21">
+    <row r="129" spans="1:5" ht="21">
       <c r="B129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3767,7 +3776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="21">
+    <row r="130" spans="1:5" ht="21">
       <c r="B130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="21">
+    <row r="131" spans="1:5" ht="21">
       <c r="B131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="21">
+    <row r="132" spans="1:5" ht="21">
       <c r="B132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="21">
+    <row r="133" spans="1:5" ht="21">
       <c r="B133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3811,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="21">
+    <row r="134" spans="1:5" ht="21">
       <c r="B134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="21">
+    <row r="135" spans="1:5" ht="21">
       <c r="B135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="21">
+    <row r="136" spans="1:5" ht="21">
       <c r="B136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3844,53 +3853,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="21">
+    <row r="138" spans="1:5" ht="21">
       <c r="C138" s="8"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4" ht="21">
+    <row r="139" spans="1:5" ht="21">
       <c r="A139">
         <v>47</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D139" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="21">
+      <c r="D139" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E139" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="21">
       <c r="A140">
         <v>48</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="21">
+      <c r="D140" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E140" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="21">
       <c r="A141">
         <v>49</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="21">
+      <c r="D141" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21">
       <c r="A142">
         <v>50</v>
       </c>
@@ -3904,7 +3922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="21">
+    <row r="143" spans="1:5" ht="21">
       <c r="A143">
         <v>51</v>
       </c>
@@ -3918,7 +3936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="21">
+    <row r="144" spans="1:5" ht="21">
       <c r="A144">
         <v>52</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F22DB0-3A45-4BB8-9190-EA1714812E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF82777-8D90-4DF9-9B0D-4DF687A0136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1482,7 +1482,10 @@
     <t>https://www.youtube.com/watch?v=LUm2ABqAs1w&amp;ab_channel=VivekanandKhyade-AlgorithmEveryDay</t>
   </si>
   <si>
-    <t>yes(11 or 49)</t>
+    <t>yes(11 or 49 or 50 or 51)</t>
+  </si>
+  <si>
+    <t>yes(47 or 48)</t>
   </si>
 </sst>
 </file>
@@ -2113,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -3871,7 +3874,7 @@
         <v>465</v>
       </c>
       <c r="E139" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="21">
@@ -3888,7 +3891,7 @@
         <v>465</v>
       </c>
       <c r="E140" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="21">
@@ -3912,129 +3915,156 @@
       <c r="A142">
         <v>50</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D142" s="9" t="s">
-        <v>5</v>
+      <c r="D142" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21">
       <c r="A143">
         <v>51</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>5</v>
+      <c r="D143" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="21">
       <c r="A144">
         <v>52</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="21">
+      <c r="D144" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="21">
       <c r="A145">
         <v>53</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="21">
+      <c r="D145" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="21">
       <c r="A146">
         <v>54</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D146" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="21">
+      <c r="D146" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="21">
       <c r="A147">
         <v>55</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="21">
+      <c r="D147" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="21">
       <c r="A148">
         <v>56</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D148" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="21">
+      <c r="D148" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="21">
       <c r="A149">
         <v>57</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="21">
+      <c r="D149" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E149" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="21">
       <c r="A150">
         <v>58</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="21">
+      <c r="D150" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="21">
       <c r="A151">
         <v>59</v>
       </c>
@@ -4048,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="21">
+    <row r="152" spans="1:5" ht="21">
       <c r="A152">
         <v>60</v>
       </c>
@@ -4062,7 +4092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="21">
+    <row r="153" spans="1:5" ht="21">
       <c r="A153">
         <v>61</v>
       </c>
@@ -4076,7 +4106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="21">
+    <row r="154" spans="1:5" ht="21">
       <c r="A154">
         <v>62</v>
       </c>
@@ -4090,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="21">
+    <row r="155" spans="1:5" ht="21">
       <c r="A155">
         <v>63</v>
       </c>
@@ -4104,7 +4134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="21">
+    <row r="156" spans="1:5" ht="21">
       <c r="A156">
         <v>64</v>
       </c>
@@ -4118,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="21">
+    <row r="157" spans="1:5" ht="21">
       <c r="A157">
         <v>65</v>
       </c>
@@ -4132,7 +4162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="21">
+    <row r="158" spans="1:5" ht="21">
       <c r="A158">
         <v>66</v>
       </c>
@@ -4146,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="21">
+    <row r="159" spans="1:5" ht="21">
       <c r="A159">
         <v>67</v>
       </c>
@@ -4160,7 +4190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="21">
+    <row r="160" spans="1:5" ht="21">
       <c r="A160">
         <v>68</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF82777-8D90-4DF9-9B0D-4DF687A0136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB213D1-94A0-42B7-9FC7-015831C73601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2116,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -4068,98 +4068,119 @@
       <c r="A151">
         <v>59</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>5</v>
+      <c r="D151" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="21">
       <c r="A152">
         <v>60</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D152" s="9" t="s">
-        <v>5</v>
+      <c r="D152" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="21">
       <c r="A153">
         <v>61</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D153" s="9" t="s">
-        <v>5</v>
+      <c r="D153" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E153" s="17" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="21">
       <c r="A154">
         <v>62</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>5</v>
+      <c r="D154" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="21">
       <c r="A155">
         <v>63</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D155" s="9" t="s">
-        <v>5</v>
+      <c r="D155" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="21">
       <c r="A156">
         <v>64</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>5</v>
+      <c r="D156" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="21">
       <c r="A157">
         <v>65</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>5</v>
+      <c r="D157" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E157" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB213D1-94A0-42B7-9FC7-015831C73601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C467422-82B6-4EFB-AF93-BC2EA161E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1486,6 +1486,15 @@
   </si>
   <si>
     <t>yes(47 or 48)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/nearly-sorted-algorithm/0</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/can-we-reverse-a-linked-list-in-less-than-on/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/why-quick-sort-preferred-for-arrays-and-merge-sort-for-linked-lists/</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1731,6 +1740,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2116,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2126,7 +2136,7 @@
     <col min="3" max="3" width="107.5" customWidth="1"/>
     <col min="4" max="4" width="40.875" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="6" max="6" width="94.125" customWidth="1"/>
     <col min="7" max="63" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2140,6 +2150,14 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" s="16" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="21">
       <c r="B4" s="4" t="s">
@@ -2154,6 +2172,9 @@
       <c r="E4" s="21" t="s">
         <v>467</v>
       </c>
+      <c r="F4" s="23" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="15"/>
@@ -2191,9 +2212,6 @@
       <c r="E7" t="s">
         <v>469</v>
       </c>
-      <c r="F7" t="s">
-        <v>466</v>
-      </c>
     </row>
     <row r="8" spans="1:6" ht="21">
       <c r="A8">
@@ -2211,9 +2229,6 @@
       <c r="E8" t="s">
         <v>468</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="21">
       <c r="A9">
@@ -2231,9 +2246,6 @@
       <c r="E9" t="s">
         <v>477</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>473</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="21">
       <c r="A10">
@@ -2429,14 +2441,14 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>475</v>
+      <c r="D21" s="26" t="s">
+        <v>465</v>
       </c>
       <c r="E21" t="s">
         <v>468</v>
@@ -4153,14 +4165,14 @@
       <c r="A156">
         <v>64</v>
       </c>
-      <c r="B156" s="24" t="s">
+      <c r="B156" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="31" t="s">
-        <v>475</v>
+      <c r="D156" s="26" t="s">
+        <v>465</v>
       </c>
       <c r="E156" s="17" t="s">
         <v>468</v>
@@ -4187,241 +4199,301 @@
       <c r="A158">
         <v>66</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>5</v>
+      <c r="D158" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E158" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="21">
       <c r="A159">
         <v>67</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>5</v>
+      <c r="D159" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E159" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="21">
       <c r="A160">
         <v>68</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="21">
+      <c r="D160" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E160" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="21">
       <c r="A161">
         <v>69</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="21">
+      <c r="D161" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="E161" t="s">
+        <v>468</v>
+      </c>
+      <c r="F161" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="21">
       <c r="A162">
         <v>70</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="21">
+      <c r="D162" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E162" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="21">
       <c r="A163">
         <v>71</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D163" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="21">
+      <c r="D163" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E163" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="21">
       <c r="A164">
         <v>72</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="21">
+      <c r="D164" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E164" t="s">
+        <v>468</v>
+      </c>
+      <c r="F164" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="21">
       <c r="A165">
         <v>73</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="21">
+      <c r="D165" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" t="s">
+        <v>468</v>
+      </c>
+      <c r="F165" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="21">
       <c r="A166">
         <v>74</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="21">
+      <c r="D166" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E166" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="21">
       <c r="A167">
         <v>75</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="21">
+      <c r="D167" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E167" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="21">
       <c r="A168">
         <v>76</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D168" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="21">
+      <c r="D168" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="E168" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="21">
       <c r="A169">
         <v>77</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="21">
+      <c r="D169" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E169" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="21">
       <c r="A170">
         <v>78</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="21">
+      <c r="D170" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E170" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="21">
       <c r="A171">
         <v>79</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D171" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="21">
+      <c r="D171" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E171" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="21">
       <c r="A172">
         <v>80</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="21">
+      <c r="D172" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E172" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="21">
       <c r="A173">
         <v>81</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="21">
+      <c r="D173" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E173" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="21">
       <c r="A174">
         <v>82</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="21">
+      <c r="D174" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E174" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="21">
       <c r="C176" s="8"/>
       <c r="D176" s="9"/>
     </row>
@@ -5617,7 +5689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="2:4" ht="21">
+    <row r="289" spans="1:4" ht="21">
       <c r="B289" s="6" t="s">
         <v>266</v>
       </c>
@@ -5628,7 +5700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:4" ht="21">
+    <row r="290" spans="1:4" ht="21">
       <c r="B290" s="6" t="s">
         <v>266</v>
       </c>
@@ -5639,7 +5711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="2:4" ht="21">
+    <row r="291" spans="1:4" ht="21">
       <c r="B291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5650,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="2:4" ht="21">
+    <row r="292" spans="1:4" ht="21">
       <c r="B292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5661,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="21">
+    <row r="293" spans="1:4" ht="21">
       <c r="B293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5672,15 +5744,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="2:4" ht="21">
+    <row r="294" spans="1:4" ht="21">
       <c r="C294" s="8"/>
       <c r="D294" s="9"/>
     </row>
-    <row r="295" spans="2:4" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="C295" s="8"/>
       <c r="D295" s="9"/>
     </row>
-    <row r="296" spans="2:4" ht="21">
+    <row r="296" spans="1:4" ht="21">
+      <c r="A296">
+        <v>83</v>
+      </c>
       <c r="B296" s="6" t="s">
         <v>286</v>
       </c>
@@ -5691,7 +5766,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="2:4" ht="21">
+    <row r="297" spans="1:4" ht="21">
+      <c r="A297">
+        <v>84</v>
+      </c>
       <c r="B297" s="6" t="s">
         <v>286</v>
       </c>
@@ -5702,7 +5780,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:4" ht="21">
+    <row r="298" spans="1:4" ht="21">
+      <c r="A298">
+        <v>85</v>
+      </c>
       <c r="B298" s="6" t="s">
         <v>286</v>
       </c>
@@ -5713,7 +5794,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="2:4" ht="21">
+    <row r="299" spans="1:4" ht="21">
+      <c r="A299">
+        <v>86</v>
+      </c>
       <c r="B299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5724,7 +5808,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="2:4" ht="21">
+    <row r="300" spans="1:4" ht="21">
+      <c r="A300">
+        <v>87</v>
+      </c>
       <c r="B300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5735,7 +5822,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="2:4" ht="21">
+    <row r="301" spans="1:4" ht="21">
+      <c r="A301">
+        <v>88</v>
+      </c>
       <c r="B301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5746,7 +5836,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="21">
+    <row r="302" spans="1:4" ht="21">
+      <c r="A302">
+        <v>89</v>
+      </c>
       <c r="B302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5757,7 +5850,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="2:4" ht="21">
+    <row r="303" spans="1:4" ht="21">
+      <c r="A303">
+        <v>90</v>
+      </c>
       <c r="B303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5768,7 +5864,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="2:4" ht="21">
+    <row r="304" spans="1:4" ht="21">
+      <c r="A304">
+        <v>91</v>
+      </c>
       <c r="B304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5779,7 +5878,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="21">
+    <row r="305" spans="1:4" ht="21">
+      <c r="A305">
+        <v>92</v>
+      </c>
       <c r="B305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5790,7 +5892,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="2:4" ht="21">
+    <row r="306" spans="1:4" ht="21">
+      <c r="A306">
+        <v>93</v>
+      </c>
       <c r="B306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5801,7 +5906,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="2:4" ht="21">
+    <row r="307" spans="1:4" ht="21">
+      <c r="A307">
+        <v>94</v>
+      </c>
       <c r="B307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5812,7 +5920,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="21">
+    <row r="308" spans="1:4" ht="21">
+      <c r="A308">
+        <v>95</v>
+      </c>
       <c r="B308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5823,7 +5934,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="21">
+    <row r="309" spans="1:4" ht="21">
+      <c r="A309">
+        <v>96</v>
+      </c>
       <c r="B309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5834,7 +5948,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="21">
+    <row r="310" spans="1:4" ht="21">
+      <c r="A310">
+        <v>97</v>
+      </c>
       <c r="B310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5845,7 +5962,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="21">
+    <row r="311" spans="1:4" ht="21">
+      <c r="A311">
+        <v>98</v>
+      </c>
       <c r="B311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5856,7 +5976,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="21">
+    <row r="312" spans="1:4" ht="21">
+      <c r="A312">
+        <v>99</v>
+      </c>
       <c r="B312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5867,7 +5990,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="21">
+    <row r="313" spans="1:4" ht="21">
+      <c r="A313">
+        <v>100</v>
+      </c>
       <c r="B313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5878,7 +6004,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:4" ht="21">
+    <row r="314" spans="1:4" ht="21">
+      <c r="A314">
+        <v>101</v>
+      </c>
       <c r="B314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5889,7 +6018,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="21">
+    <row r="315" spans="1:4" ht="21">
+      <c r="A315">
+        <v>102</v>
+      </c>
       <c r="B315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5900,7 +6032,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="21">
+    <row r="316" spans="1:4" ht="21">
+      <c r="A316">
+        <v>103</v>
+      </c>
       <c r="B316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5911,7 +6046,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="21">
+    <row r="317" spans="1:4" ht="21">
+      <c r="A317">
+        <v>104</v>
+      </c>
       <c r="B317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5922,7 +6060,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:4" ht="21">
+    <row r="318" spans="1:4" ht="21">
+      <c r="A318">
+        <v>105</v>
+      </c>
       <c r="B318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5933,7 +6074,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="21">
+    <row r="319" spans="1:4" ht="21">
+      <c r="A319">
+        <v>106</v>
+      </c>
       <c r="B319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5944,7 +6088,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="21">
+    <row r="320" spans="1:4" ht="21">
+      <c r="A320">
+        <v>107</v>
+      </c>
       <c r="B320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5955,7 +6102,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="21">
+    <row r="321" spans="1:4" ht="21">
+      <c r="A321">
+        <v>108</v>
+      </c>
       <c r="B321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5966,7 +6116,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="21">
+    <row r="322" spans="1:4" ht="21">
+      <c r="A322">
+        <v>109</v>
+      </c>
       <c r="B322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5977,7 +6130,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="21">
+    <row r="323" spans="1:4" ht="21">
+      <c r="A323">
+        <v>110</v>
+      </c>
       <c r="B323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5988,7 +6144,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="21">
+    <row r="324" spans="1:4" ht="21">
+      <c r="A324">
+        <v>111</v>
+      </c>
       <c r="B324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5999,7 +6158,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="21">
+    <row r="325" spans="1:4" ht="21">
+      <c r="A325">
+        <v>112</v>
+      </c>
       <c r="B325" s="6" t="s">
         <v>286</v>
       </c>
@@ -6010,7 +6172,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="21">
+    <row r="326" spans="1:4" ht="21">
+      <c r="A326">
+        <v>113</v>
+      </c>
       <c r="B326" s="6" t="s">
         <v>286</v>
       </c>
@@ -6021,7 +6186,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="21">
+    <row r="327" spans="1:4" ht="21">
+      <c r="A327">
+        <v>114</v>
+      </c>
       <c r="B327" s="6" t="s">
         <v>286</v>
       </c>
@@ -6032,7 +6200,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="21">
+    <row r="328" spans="1:4" ht="21">
+      <c r="A328">
+        <v>115</v>
+      </c>
       <c r="B328" s="6" t="s">
         <v>286</v>
       </c>
@@ -6043,7 +6214,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="21">
+    <row r="329" spans="1:4" ht="21">
+      <c r="A329">
+        <v>116</v>
+      </c>
       <c r="B329" s="6" t="s">
         <v>286</v>
       </c>
@@ -6054,7 +6228,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="21">
+    <row r="330" spans="1:4" ht="21">
+      <c r="A330">
+        <v>117</v>
+      </c>
       <c r="B330" s="6" t="s">
         <v>286</v>
       </c>
@@ -6065,7 +6242,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:4" ht="21">
+    <row r="331" spans="1:4" ht="21">
+      <c r="A331">
+        <v>118</v>
+      </c>
       <c r="B331" s="6" t="s">
         <v>286</v>
       </c>
@@ -6076,7 +6256,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="21">
+    <row r="332" spans="1:4" ht="21">
+      <c r="A332">
+        <v>119</v>
+      </c>
       <c r="B332" s="6" t="s">
         <v>286</v>
       </c>
@@ -6087,7 +6270,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="21">
+    <row r="333" spans="1:4" ht="21">
+      <c r="A333">
+        <v>120</v>
+      </c>
       <c r="B333" s="6" t="s">
         <v>286</v>
       </c>
@@ -6098,15 +6284,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="21">
+    <row r="334" spans="1:4" ht="21">
       <c r="C334" s="8"/>
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="2:4" ht="21">
+    <row r="335" spans="1:4" ht="21">
       <c r="C335" s="8"/>
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="2:4" ht="21">
+    <row r="336" spans="1:4" ht="21">
       <c r="B336" s="6" t="s">
         <v>325</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C467422-82B6-4EFB-AF93-BC2EA161E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013C7EB-D8A3-4244-B8FD-B28682ED5F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="491">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1495,6 +1495,9 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/why-quick-sort-preferred-for-arrays-and-merge-sort-for-linked-lists/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/design-a-stack-that-supports-getmin-in-o1-time-and-o1-extra-space/</t>
   </si>
 </sst>
 </file>
@@ -2126,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -5689,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="21">
+    <row r="289" spans="1:6" ht="21">
       <c r="B289" s="6" t="s">
         <v>266</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="21">
+    <row r="290" spans="1:6" ht="21">
       <c r="B290" s="6" t="s">
         <v>266</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="21">
+    <row r="291" spans="1:6" ht="21">
       <c r="B291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="21">
+    <row r="292" spans="1:6" ht="21">
       <c r="B292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="21">
+    <row r="293" spans="1:6" ht="21">
       <c r="B293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5744,155 +5747,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="21">
+    <row r="294" spans="1:6" ht="21">
       <c r="C294" s="8"/>
       <c r="D294" s="9"/>
     </row>
-    <row r="295" spans="1:4" ht="21">
+    <row r="295" spans="1:6" ht="21">
       <c r="C295" s="8"/>
       <c r="D295" s="9"/>
     </row>
-    <row r="296" spans="1:4" ht="21">
+    <row r="296" spans="1:6" ht="21">
       <c r="A296">
         <v>83</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="D296" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="21">
+      <c r="D296" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E296" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="21">
       <c r="A297">
         <v>84</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="D297" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="21">
+      <c r="D297" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E297" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="21">
       <c r="A298">
         <v>85</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D298" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="21">
+      <c r="D298" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E298" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="21">
       <c r="A299">
         <v>86</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="D299" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="21">
+      <c r="D299" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E299" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="21">
       <c r="A300">
         <v>87</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="D300" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="21">
+      <c r="D300" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E300" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="21">
       <c r="A301">
         <v>88</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="D301" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="21">
+      <c r="D301" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E301" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="21">
       <c r="A302">
         <v>89</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="D302" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="21">
+      <c r="D302" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E302" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="21">
       <c r="A303">
         <v>90</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="D303" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="21">
+      <c r="D303" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E303" t="s">
+        <v>468</v>
+      </c>
+      <c r="F303" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="21">
       <c r="A304">
         <v>91</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="D304" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="21">
+      <c r="D304" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E304" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="21">
       <c r="A305">
         <v>92</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="D305" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="21">
+      <c r="D305" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E305" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="21">
       <c r="A306">
         <v>93</v>
       </c>
@@ -5906,7 +5942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="21">
+    <row r="307" spans="1:5" ht="21">
       <c r="A307">
         <v>94</v>
       </c>
@@ -5920,7 +5956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="21">
+    <row r="308" spans="1:5" ht="21">
       <c r="A308">
         <v>95</v>
       </c>
@@ -5934,7 +5970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="21">
+    <row r="309" spans="1:5" ht="21">
       <c r="A309">
         <v>96</v>
       </c>
@@ -5948,7 +5984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="21">
+    <row r="310" spans="1:5" ht="21">
       <c r="A310">
         <v>97</v>
       </c>
@@ -5962,7 +5998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="21">
+    <row r="311" spans="1:5" ht="21">
       <c r="A311">
         <v>98</v>
       </c>
@@ -5976,7 +6012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="21">
+    <row r="312" spans="1:5" ht="21">
       <c r="A312">
         <v>99</v>
       </c>
@@ -5990,7 +6026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="21">
+    <row r="313" spans="1:5" ht="21">
       <c r="A313">
         <v>100</v>
       </c>
@@ -6004,7 +6040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="21">
+    <row r="314" spans="1:5" ht="21">
       <c r="A314">
         <v>101</v>
       </c>
@@ -6018,7 +6054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="21">
+    <row r="315" spans="1:5" ht="21">
       <c r="A315">
         <v>102</v>
       </c>
@@ -6032,7 +6068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="21">
+    <row r="316" spans="1:5" ht="21">
       <c r="A316">
         <v>103</v>
       </c>
@@ -6046,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="21">
+    <row r="317" spans="1:5" ht="21">
       <c r="A317">
         <v>104</v>
       </c>
@@ -6060,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="21">
+    <row r="318" spans="1:5" ht="21">
       <c r="A318">
         <v>105</v>
       </c>
@@ -6074,7 +6110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="21">
+    <row r="319" spans="1:5" ht="21">
       <c r="A319">
         <v>106</v>
       </c>
@@ -6088,7 +6124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="21">
+    <row r="320" spans="1:5" ht="21">
       <c r="A320">
         <v>107</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013C7EB-D8A3-4244-B8FD-B28682ED5F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE60B232-9F78-4CC7-881D-C4ED62B6F16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1498,6 +1498,9 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/design-a-stack-that-supports-getmin-in-o1-time-and-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1744,6 +1747,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2129,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2322,13 +2328,13 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>471</v>
       </c>
       <c r="E14" t="s">
@@ -5911,7 +5917,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="21">
+    <row r="305" spans="1:6" ht="21">
       <c r="A305">
         <v>92</v>
       </c>
@@ -5928,189 +5934,237 @@
         <v>468</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="21">
+    <row r="306" spans="1:6" ht="21">
       <c r="A306">
         <v>93</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="D306" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="21">
+      <c r="D306" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E306" t="s">
+        <v>468</v>
+      </c>
+      <c r="F306" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="21">
       <c r="A307">
         <v>94</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="D307" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="21">
+      <c r="D307" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E307" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="21">
       <c r="A308">
         <v>95</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="B308" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D308" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="21">
+      <c r="D308" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E308" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="21">
       <c r="A309">
         <v>96</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B309" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C309" s="10" t="s">
+      <c r="C309" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D309" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="21">
+      <c r="D309" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E309" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="21">
       <c r="A310">
         <v>97</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="D310" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="21">
+      <c r="D310" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E310" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="21">
       <c r="A311">
         <v>98</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="D311" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="21">
+      <c r="D311" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E311" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="21">
       <c r="A312">
         <v>99</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="D312" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="21">
+      <c r="D312" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E312" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="21">
       <c r="A313">
         <v>100</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="D313" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="21">
+      <c r="D313" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E313" t="s">
+        <v>468</v>
+      </c>
+      <c r="F313" s="17"/>
+    </row>
+    <row r="314" spans="1:6" ht="21">
       <c r="A314">
         <v>101</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="D314" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="21">
+      <c r="D314" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E314" t="s">
+        <v>469</v>
+      </c>
+      <c r="F314" s="17"/>
+    </row>
+    <row r="315" spans="1:6" ht="21">
       <c r="A315">
         <v>102</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="D315" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="21">
+      <c r="D315" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E315" t="s">
+        <v>469</v>
+      </c>
+      <c r="F315" s="17"/>
+    </row>
+    <row r="316" spans="1:6" ht="21">
       <c r="A316">
         <v>103</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C316" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="D316" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="21">
+      <c r="D316" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E316" t="s">
+        <v>469</v>
+      </c>
+      <c r="F316" s="17"/>
+    </row>
+    <row r="317" spans="1:6" ht="21">
       <c r="A317">
         <v>104</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B317" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C317" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="D317" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="21">
+      <c r="D317" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E317" t="s">
+        <v>468</v>
+      </c>
+      <c r="F317" s="17"/>
+    </row>
+    <row r="318" spans="1:6" ht="21">
       <c r="A318">
         <v>105</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C318" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="D318" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="21">
+      <c r="D318" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E318" t="s">
+        <v>469</v>
+      </c>
+      <c r="F318" s="17"/>
+    </row>
+    <row r="319" spans="1:6" ht="21">
       <c r="A319">
         <v>106</v>
       </c>
@@ -6123,8 +6177,9 @@
       <c r="D319" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" ht="21">
+      <c r="F319" s="17"/>
+    </row>
+    <row r="320" spans="1:6" ht="21">
       <c r="A320">
         <v>107</v>
       </c>
@@ -6137,8 +6192,9 @@
       <c r="D320" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="21">
+      <c r="F320" s="17"/>
+    </row>
+    <row r="321" spans="1:6" ht="21">
       <c r="A321">
         <v>108</v>
       </c>
@@ -6151,8 +6207,9 @@
       <c r="D321" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" ht="21">
+      <c r="F321" s="17"/>
+    </row>
+    <row r="322" spans="1:6" ht="21">
       <c r="A322">
         <v>109</v>
       </c>
@@ -6165,8 +6222,9 @@
       <c r="D322" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" ht="21">
+      <c r="F322" s="17"/>
+    </row>
+    <row r="323" spans="1:6" ht="21">
       <c r="A323">
         <v>110</v>
       </c>
@@ -6179,8 +6237,9 @@
       <c r="D323" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" ht="21">
+      <c r="F323" s="17"/>
+    </row>
+    <row r="324" spans="1:6" ht="21">
       <c r="A324">
         <v>111</v>
       </c>
@@ -6193,8 +6252,9 @@
       <c r="D324" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" ht="21">
+      <c r="F324" s="17"/>
+    </row>
+    <row r="325" spans="1:6" ht="21">
       <c r="A325">
         <v>112</v>
       </c>
@@ -6208,7 +6268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="21">
+    <row r="326" spans="1:6" ht="21">
       <c r="A326">
         <v>113</v>
       </c>
@@ -6222,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="21">
+    <row r="327" spans="1:6" ht="21">
       <c r="A327">
         <v>114</v>
       </c>
@@ -6236,7 +6296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="21">
+    <row r="328" spans="1:6" ht="21">
       <c r="A328">
         <v>115</v>
       </c>
@@ -6250,7 +6310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="21">
+    <row r="329" spans="1:6" ht="21">
       <c r="A329">
         <v>116</v>
       </c>
@@ -6264,7 +6324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="21">
+    <row r="330" spans="1:6" ht="21">
       <c r="A330">
         <v>117</v>
       </c>
@@ -6278,7 +6338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="21">
+    <row r="331" spans="1:6" ht="21">
       <c r="A331">
         <v>118</v>
       </c>
@@ -6292,7 +6352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="21">
+    <row r="332" spans="1:6" ht="21">
       <c r="A332">
         <v>119</v>
       </c>
@@ -6306,7 +6366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="21">
+    <row r="333" spans="1:6" ht="21">
       <c r="A333">
         <v>120</v>
       </c>
@@ -6320,15 +6380,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="21">
+    <row r="334" spans="1:6" ht="21">
       <c r="C334" s="8"/>
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="1:4" ht="21">
+    <row r="335" spans="1:6" ht="21">
       <c r="C335" s="8"/>
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="1:4" ht="21">
+    <row r="336" spans="1:6" ht="21">
       <c r="B336" s="6" t="s">
         <v>325</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE60B232-9F78-4CC7-881D-C4ED62B6F16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFA2CD-9D8D-4902-A4DA-B0CEE42FDA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="493">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1501,13 +1501,16 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/26552481/which-is-faster-pass-by-reference-vs-pass-by-value-c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1568,14 +1571,6 @@
     <font>
       <u/>
       <sz val="16"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1611,6 +1606,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1678,7 +1688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1692,15 +1702,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1713,14 +1723,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1732,12 +1741,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1746,10 +1755,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2136,7 +2150,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A313" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+      <selection activeCell="D327" sqref="D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2178,10 +2192,10 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>473</v>
       </c>
     </row>
@@ -2232,7 +2246,7 @@
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E8" t="s">
@@ -2311,7 +2325,7 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -2328,13 +2342,13 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>471</v>
       </c>
       <c r="E14" t="s">
@@ -2348,10 +2362,10 @@
       <c r="B15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>465</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -2368,7 +2382,7 @@
       <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>465</v>
       </c>
       <c r="E16" s="17" t="s">
@@ -2388,7 +2402,7 @@
       <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E17" t="s">
@@ -2422,7 +2436,7 @@
       <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E19" t="s">
@@ -2439,7 +2453,7 @@
       <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E20" t="s">
@@ -2453,10 +2467,10 @@
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E21" t="s">
@@ -2470,10 +2484,10 @@
       <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E22" t="s">
@@ -2490,7 +2504,7 @@
       <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E23" t="s">
@@ -2507,7 +2521,7 @@
       <c r="C24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E24" t="s">
@@ -2524,7 +2538,7 @@
       <c r="C25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E25" t="s">
@@ -2541,7 +2555,7 @@
       <c r="C26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>465</v>
       </c>
       <c r="E26" t="s">
@@ -2558,7 +2572,7 @@
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>465</v>
       </c>
       <c r="E27" t="s">
@@ -2569,13 +2583,13 @@
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>471</v>
       </c>
       <c r="E28" t="s">
@@ -2603,13 +2617,13 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="30" t="s">
         <v>475</v>
       </c>
       <c r="E30" t="s">
@@ -2620,13 +2634,13 @@
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>475</v>
       </c>
       <c r="E31" t="s">
@@ -2671,13 +2685,13 @@
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="30" t="s">
         <v>476</v>
       </c>
       <c r="E34" t="s">
@@ -2705,13 +2719,13 @@
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="30" t="s">
         <v>476</v>
       </c>
       <c r="E36" t="s">
@@ -2728,7 +2742,7 @@
       <c r="C37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>465</v>
       </c>
       <c r="E37" t="s">
@@ -2739,13 +2753,13 @@
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="30" t="s">
         <v>475</v>
       </c>
       <c r="E38" t="s">
@@ -2796,13 +2810,13 @@
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="30" t="s">
         <v>475</v>
       </c>
       <c r="E41" t="s">
@@ -2829,10 +2843,10 @@
       <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E44" t="s">
@@ -2846,10 +2860,10 @@
       <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E45" t="s">
@@ -2860,13 +2874,13 @@
       <c r="A46">
         <v>39</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>475</v>
       </c>
       <c r="E46" t="s">
@@ -2880,10 +2894,10 @@
       <c r="B47" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E47" t="s">
@@ -2897,10 +2911,10 @@
       <c r="B48" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E48" t="s">
@@ -2911,13 +2925,13 @@
       <c r="A49">
         <v>42</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>475</v>
       </c>
       <c r="E49" t="s">
@@ -2928,13 +2942,13 @@
       <c r="A50">
         <v>43</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>475</v>
       </c>
       <c r="E50" t="s">
@@ -2948,10 +2962,10 @@
       <c r="B51" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E51" t="s">
@@ -2965,13 +2979,13 @@
       <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>475</v>
       </c>
       <c r="E52" t="s">
@@ -2985,10 +2999,10 @@
       <c r="B53" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E53" t="s">
@@ -3888,10 +3902,10 @@
       <c r="B139" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="C139" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D139" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E139" t="s">
@@ -3905,10 +3919,10 @@
       <c r="B140" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="28" t="s">
+      <c r="C140" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="26" t="s">
+      <c r="D140" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E140" t="s">
@@ -3922,10 +3936,10 @@
       <c r="B141" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E141" s="17" t="s">
@@ -3939,10 +3953,10 @@
       <c r="B142" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E142" s="17" t="s">
@@ -3956,10 +3970,10 @@
       <c r="B143" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E143" s="17" t="s">
@@ -3973,10 +3987,10 @@
       <c r="B144" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="26" t="s">
+      <c r="D144" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E144" s="17" t="s">
@@ -3990,10 +4004,10 @@
       <c r="B145" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E145" s="17" t="s">
@@ -4007,10 +4021,10 @@
       <c r="B146" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E146" s="17" t="s">
@@ -4024,10 +4038,10 @@
       <c r="B147" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E147" s="17" t="s">
@@ -4041,10 +4055,10 @@
       <c r="B148" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E148" s="17" t="s">
@@ -4058,10 +4072,10 @@
       <c r="B149" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E149" s="17" t="s">
@@ -4075,10 +4089,10 @@
       <c r="B150" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C150" s="28" t="s">
+      <c r="C150" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E150" s="17" t="s">
@@ -4092,10 +4106,10 @@
       <c r="B151" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E151" s="17" t="s">
@@ -4106,13 +4120,13 @@
       <c r="A152">
         <v>60</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C152" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="30" t="s">
         <v>475</v>
       </c>
       <c r="E152" s="17" t="s">
@@ -4126,10 +4140,10 @@
       <c r="B153" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="C153" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D153" s="26" t="s">
+      <c r="D153" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E153" s="17" t="s">
@@ -4143,10 +4157,10 @@
       <c r="B154" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="C154" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E154" s="17" t="s">
@@ -4160,10 +4174,10 @@
       <c r="B155" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E155" s="17" t="s">
@@ -4177,10 +4191,10 @@
       <c r="B156" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="C156" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="D156" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E156" s="17" t="s">
@@ -4194,10 +4208,10 @@
       <c r="B157" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D157" s="26" t="s">
+      <c r="D157" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E157" t="s">
@@ -4211,10 +4225,10 @@
       <c r="B158" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C158" s="28" t="s">
+      <c r="C158" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E158" t="s">
@@ -4228,10 +4242,10 @@
       <c r="B159" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="D159" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E159" t="s">
@@ -4245,10 +4259,10 @@
       <c r="B160" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E160" t="s">
@@ -4259,13 +4273,13 @@
       <c r="A161">
         <v>69</v>
       </c>
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C161" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D161" s="31" t="s">
+      <c r="D161" s="30" t="s">
         <v>475</v>
       </c>
       <c r="E161" t="s">
@@ -4282,10 +4296,10 @@
       <c r="B162" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="D162" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E162" t="s">
@@ -4299,10 +4313,10 @@
       <c r="B163" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E163" t="s">
@@ -4316,10 +4330,10 @@
       <c r="B164" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="D164" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E164" t="s">
@@ -4336,10 +4350,10 @@
       <c r="B165" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C165" s="33" t="s">
+      <c r="C165" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="26" t="s">
+      <c r="D165" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E165" t="s">
@@ -4356,10 +4370,10 @@
       <c r="B166" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C166" s="28" t="s">
+      <c r="C166" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E166" t="s">
@@ -4373,10 +4387,10 @@
       <c r="B167" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C167" s="28" t="s">
+      <c r="C167" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D167" s="26" t="s">
+      <c r="D167" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E167" t="s">
@@ -4387,13 +4401,13 @@
       <c r="A168">
         <v>76</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="30" t="s">
         <v>475</v>
       </c>
       <c r="E168" t="s">
@@ -4407,10 +4421,10 @@
       <c r="B169" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C169" s="28" t="s">
+      <c r="C169" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D169" s="26" t="s">
+      <c r="D169" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E169" t="s">
@@ -4424,10 +4438,10 @@
       <c r="B170" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C170" s="28" t="s">
+      <c r="C170" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E170" t="s">
@@ -4441,10 +4455,10 @@
       <c r="B171" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C171" s="28" t="s">
+      <c r="C171" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E171" t="s">
@@ -4458,10 +4472,10 @@
       <c r="B172" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C172" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D172" s="26" t="s">
+      <c r="D172" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E172" t="s">
@@ -4475,10 +4489,10 @@
       <c r="B173" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C173" s="28" t="s">
+      <c r="C173" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D173" s="26" t="s">
+      <c r="D173" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E173" t="s">
@@ -4492,10 +4506,10 @@
       <c r="B174" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D174" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E174" t="s">
@@ -5768,10 +5782,10 @@
       <c r="B296" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="28" t="s">
+      <c r="C296" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D296" s="26" t="s">
+      <c r="D296" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E296" t="s">
@@ -5785,10 +5799,10 @@
       <c r="B297" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C297" s="28" t="s">
+      <c r="C297" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D297" s="26" t="s">
+      <c r="D297" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E297" t="s">
@@ -5802,10 +5816,10 @@
       <c r="B298" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C298" s="28" t="s">
+      <c r="C298" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D298" s="26" t="s">
+      <c r="D298" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E298" t="s">
@@ -5819,10 +5833,10 @@
       <c r="B299" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C299" s="28" t="s">
+      <c r="C299" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D299" s="26" t="s">
+      <c r="D299" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E299" t="s">
@@ -5836,10 +5850,10 @@
       <c r="B300" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C300" s="28" t="s">
+      <c r="C300" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D300" s="26" t="s">
+      <c r="D300" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E300" t="s">
@@ -5853,10 +5867,10 @@
       <c r="B301" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C301" s="28" t="s">
+      <c r="C301" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D301" s="26" t="s">
+      <c r="D301" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E301" t="s">
@@ -5870,10 +5884,10 @@
       <c r="B302" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="28" t="s">
+      <c r="C302" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D302" s="26" t="s">
+      <c r="D302" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E302" t="s">
@@ -5887,10 +5901,10 @@
       <c r="B303" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C303" s="28" t="s">
+      <c r="C303" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D303" s="26" t="s">
+      <c r="D303" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E303" t="s">
@@ -5907,10 +5921,10 @@
       <c r="B304" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C304" s="28" t="s">
+      <c r="C304" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D304" s="26" t="s">
+      <c r="D304" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E304" t="s">
@@ -5924,10 +5938,10 @@
       <c r="B305" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C305" s="28" t="s">
+      <c r="C305" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D305" s="26" t="s">
+      <c r="D305" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E305" t="s">
@@ -5941,10 +5955,10 @@
       <c r="B306" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C306" s="28" t="s">
+      <c r="C306" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D306" s="26" t="s">
+      <c r="D306" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E306" t="s">
@@ -5961,10 +5975,10 @@
       <c r="B307" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C307" s="28" t="s">
+      <c r="C307" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D307" s="26" t="s">
+      <c r="D307" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E307" t="s">
@@ -5978,10 +5992,10 @@
       <c r="B308" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C308" s="28" t="s">
+      <c r="C308" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D308" s="26" t="s">
+      <c r="D308" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E308" t="s">
@@ -5995,10 +6009,10 @@
       <c r="B309" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C309" s="34" t="s">
+      <c r="C309" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D309" s="26" t="s">
+      <c r="D309" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E309" t="s">
@@ -6012,10 +6026,10 @@
       <c r="B310" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C310" s="28" t="s">
+      <c r="C310" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="D310" s="26" t="s">
+      <c r="D310" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E310" t="s">
@@ -6029,10 +6043,10 @@
       <c r="B311" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C311" s="28" t="s">
+      <c r="C311" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D311" s="26" t="s">
+      <c r="D311" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E311" t="s">
@@ -6046,10 +6060,10 @@
       <c r="B312" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C312" s="28" t="s">
+      <c r="C312" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="D312" s="26" t="s">
+      <c r="D312" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E312" t="s">
@@ -6063,10 +6077,10 @@
       <c r="B313" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C313" s="28" t="s">
+      <c r="C313" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D313" s="26" t="s">
+      <c r="D313" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E313" t="s">
@@ -6081,10 +6095,10 @@
       <c r="B314" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C314" s="28" t="s">
+      <c r="C314" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D314" s="26" t="s">
+      <c r="D314" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E314" t="s">
@@ -6099,10 +6113,10 @@
       <c r="B315" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C315" s="28" t="s">
+      <c r="C315" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="D315" s="26" t="s">
+      <c r="D315" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E315" t="s">
@@ -6117,10 +6131,10 @@
       <c r="B316" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C316" s="28" t="s">
+      <c r="C316" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D316" s="26" t="s">
+      <c r="D316" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E316" t="s">
@@ -6135,10 +6149,10 @@
       <c r="B317" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C317" s="28" t="s">
+      <c r="C317" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D317" s="26" t="s">
+      <c r="D317" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E317" t="s">
@@ -6153,10 +6167,10 @@
       <c r="B318" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C318" s="28" t="s">
+      <c r="C318" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D318" s="26" t="s">
+      <c r="D318" s="25" t="s">
         <v>465</v>
       </c>
       <c r="E318" t="s">
@@ -6168,14 +6182,17 @@
       <c r="A319">
         <v>106</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="B319" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C319" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D319" s="9" t="s">
-        <v>5</v>
+      <c r="D319" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E319" t="s">
+        <v>468</v>
       </c>
       <c r="F319" s="17"/>
     </row>
@@ -6183,14 +6200,17 @@
       <c r="A320">
         <v>107</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B320" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C320" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D320" s="9" t="s">
-        <v>5</v>
+      <c r="D320" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E320" t="s">
+        <v>468</v>
       </c>
       <c r="F320" s="17"/>
     </row>
@@ -6198,14 +6218,17 @@
       <c r="A321">
         <v>108</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C321" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="D321" s="9" t="s">
-        <v>5</v>
+      <c r="D321" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="E321" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="F321" s="17"/>
     </row>
@@ -6213,29 +6236,37 @@
       <c r="A322">
         <v>109</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C322" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D322" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F322" s="17"/>
+      <c r="D322" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E322" t="s">
+        <v>469</v>
+      </c>
+      <c r="F322" s="17" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="323" spans="1:6" ht="21">
       <c r="A323">
         <v>110</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C323" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D323" s="9" t="s">
-        <v>5</v>
+      <c r="D323" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E323" t="s">
+        <v>469</v>
       </c>
       <c r="F323" s="17"/>
     </row>
@@ -6243,14 +6274,17 @@
       <c r="A324">
         <v>111</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B324" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C324" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D324" s="9" t="s">
-        <v>5</v>
+      <c r="D324" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E324" t="s">
+        <v>469</v>
       </c>
       <c r="F324" s="17"/>
     </row>
@@ -6258,42 +6292,52 @@
       <c r="A325">
         <v>112</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="B325" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D325" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="D325" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E325" t="s">
+        <v>468</v>
+      </c>
+      <c r="F325" s="36"/>
     </row>
     <row r="326" spans="1:6" ht="21">
       <c r="A326">
         <v>113</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="B326" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D326" s="9" t="s">
-        <v>5</v>
+      <c r="D326" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E326" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="21">
       <c r="A327">
         <v>114</v>
       </c>
-      <c r="B327" s="6" t="s">
+      <c r="B327" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C327" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D327" s="9" t="s">
-        <v>5</v>
+      <c r="D327" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E327" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFA2CD-9D8D-4902-A4DA-B0CEE42FDA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC78111-373E-4108-9E85-0F6BF881FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1422,9 +1422,6 @@
     <t>Power Set</t>
   </si>
   <si>
-    <t>yes, correct approach</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -1504,6 +1501,15 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/26552481/which-is-faster-pass-by-reference-vs-pass-by-value-c</t>
+  </si>
+  <si>
+    <t>always check empty before checking first in queue or top in stack</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/1436020/whats-the-difference-between-deque-and-list-stl-containers</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-a-binary-tree-in-vertical-order-set-3-using-level-order-traversal/</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1758,9 +1764,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2149,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2174,12 +2177,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="F3" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21">
@@ -2193,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2213,10 +2216,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21">
@@ -2230,10 +2233,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21">
@@ -2247,10 +2250,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21">
@@ -2264,10 +2267,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21">
@@ -2281,10 +2284,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21">
@@ -2298,10 +2301,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21">
@@ -2315,10 +2318,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21">
@@ -2332,10 +2335,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21">
@@ -2349,10 +2352,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21">
@@ -2362,14 +2365,14 @@
       <c r="B15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21">
@@ -2383,13 +2386,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21">
@@ -2403,10 +2406,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21">
@@ -2420,10 +2423,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21">
@@ -2437,10 +2440,10 @@
         <v>20</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21">
@@ -2454,10 +2457,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21">
@@ -2471,10 +2474,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21">
@@ -2488,10 +2491,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21">
@@ -2505,10 +2508,10 @@
         <v>24</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21">
@@ -2522,10 +2525,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21">
@@ -2539,10 +2542,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21">
@@ -2556,10 +2559,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21">
@@ -2573,10 +2576,10 @@
         <v>28</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21">
@@ -2590,10 +2593,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21">
@@ -2607,10 +2610,10 @@
         <v>30</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21">
@@ -2624,10 +2627,10 @@
         <v>31</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21">
@@ -2641,10 +2644,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21">
@@ -2658,10 +2661,10 @@
         <v>33</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21">
@@ -2675,10 +2678,10 @@
         <v>34</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21">
@@ -2692,10 +2695,10 @@
         <v>35</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="21">
@@ -2709,10 +2712,10 @@
         <v>36</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21">
@@ -2726,10 +2729,10 @@
         <v>37</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21">
@@ -2743,10 +2746,10 @@
         <v>38</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21">
@@ -2760,10 +2763,10 @@
         <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21">
@@ -2777,13 +2780,13 @@
         <v>40</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="21">
@@ -2797,13 +2800,13 @@
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21">
@@ -2817,10 +2820,10 @@
         <v>42</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21">
@@ -2847,10 +2850,10 @@
         <v>44</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21">
@@ -2864,10 +2867,10 @@
         <v>45</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21">
@@ -2881,10 +2884,10 @@
         <v>46</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21">
@@ -2898,10 +2901,10 @@
         <v>47</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21">
@@ -2915,10 +2918,10 @@
         <v>48</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E48" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="21">
@@ -2932,10 +2935,10 @@
         <v>49</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21">
@@ -2949,10 +2952,10 @@
         <v>50</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="21">
@@ -2966,13 +2969,13 @@
         <v>51</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="21">
@@ -2986,10 +2989,10 @@
         <v>52</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21">
@@ -3003,10 +3006,10 @@
         <v>53</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21">
@@ -3906,10 +3909,10 @@
         <v>136</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E139" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="21">
@@ -3923,10 +3926,10 @@
         <v>137</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E140" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="21">
@@ -3940,10 +3943,10 @@
         <v>138</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="21">
@@ -3957,10 +3960,10 @@
         <v>139</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21">
@@ -3974,10 +3977,10 @@
         <v>140</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="21">
@@ -3991,10 +3994,10 @@
         <v>141</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="21">
@@ -4008,10 +4011,10 @@
         <v>142</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="21">
@@ -4025,10 +4028,10 @@
         <v>143</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="21">
@@ -4042,10 +4045,10 @@
         <v>144</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="21">
@@ -4059,10 +4062,10 @@
         <v>145</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="21">
@@ -4076,10 +4079,10 @@
         <v>146</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="21">
@@ -4093,10 +4096,10 @@
         <v>147</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="21">
@@ -4110,10 +4113,10 @@
         <v>148</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="21">
@@ -4127,10 +4130,10 @@
         <v>149</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="21">
@@ -4144,10 +4147,10 @@
         <v>150</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="21">
@@ -4161,10 +4164,10 @@
         <v>151</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="21">
@@ -4178,10 +4181,10 @@
         <v>152</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="21">
@@ -4195,10 +4198,10 @@
         <v>153</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="21">
@@ -4212,10 +4215,10 @@
         <v>154</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E157" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="21">
@@ -4229,10 +4232,10 @@
         <v>155</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E158" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="21">
@@ -4246,10 +4249,10 @@
         <v>156</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E159" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="21">
@@ -4263,10 +4266,10 @@
         <v>157</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E160" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="21">
@@ -4280,13 +4283,13 @@
         <v>158</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E161" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F161" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="21">
@@ -4300,10 +4303,10 @@
         <v>159</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E162" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="21">
@@ -4317,10 +4320,10 @@
         <v>160</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E163" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="21">
@@ -4334,13 +4337,13 @@
         <v>161</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E164" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F164" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="21">
@@ -4354,13 +4357,13 @@
         <v>162</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E165" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F165" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="21">
@@ -4374,10 +4377,10 @@
         <v>163</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E166" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="21">
@@ -4391,10 +4394,10 @@
         <v>164</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E167" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="21">
@@ -4408,10 +4411,10 @@
         <v>165</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E168" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="21">
@@ -4425,10 +4428,10 @@
         <v>166</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E169" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="21">
@@ -4442,10 +4445,10 @@
         <v>167</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E170" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="21">
@@ -4459,10 +4462,10 @@
         <v>168</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E171" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="21">
@@ -4476,10 +4479,10 @@
         <v>169</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E172" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="21">
@@ -4493,10 +4496,10 @@
         <v>170</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E173" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="21">
@@ -4510,149 +4513,227 @@
         <v>171</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E174" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="21">
       <c r="C176" s="8"/>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="2:4" ht="21">
-      <c r="B177" s="6" t="s">
+    <row r="177" spans="1:6" ht="21">
+      <c r="A177">
+        <v>121</v>
+      </c>
+      <c r="B177" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" ht="21">
-      <c r="B178" s="6" t="s">
+      <c r="D177" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E177" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="21">
+      <c r="A178">
+        <v>122</v>
+      </c>
+      <c r="B178" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" ht="21">
-      <c r="B179" s="6" t="s">
+      <c r="D178" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E178" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="21">
+      <c r="A179">
+        <v>123</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" ht="21">
-      <c r="B180" s="6" t="s">
+      <c r="D179" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E179" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="21">
+      <c r="A180">
+        <v>124</v>
+      </c>
+      <c r="B180" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" ht="21">
-      <c r="B181" s="6" t="s">
+      <c r="D180" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E180" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="21">
+      <c r="A181">
+        <v>125</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" ht="21">
-      <c r="B182" s="6" t="s">
+      <c r="D181" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E181" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="21">
+      <c r="A182">
+        <v>126</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C182" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" ht="21">
-      <c r="B183" s="6" t="s">
+      <c r="D182" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E182" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="21">
+      <c r="A183">
+        <v>127</v>
+      </c>
+      <c r="B183" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D183" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" ht="21">
-      <c r="B184" s="6" t="s">
+      <c r="D183" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E183" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="21">
+      <c r="A184">
+        <v>128</v>
+      </c>
+      <c r="B184" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C184" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D184" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" ht="21">
-      <c r="B185" s="6" t="s">
+      <c r="D184" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E184" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="21">
+      <c r="A185">
+        <v>129</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" ht="21">
-      <c r="B186" s="6" t="s">
+      <c r="D185" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E185" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="21">
+      <c r="A186">
+        <v>130</v>
+      </c>
+      <c r="B186" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C186" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D186" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" ht="21">
-      <c r="B187" s="6" t="s">
+      <c r="D186" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E186" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="21">
+      <c r="A187">
+        <v>131</v>
+      </c>
+      <c r="B187" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D187" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" ht="21">
-      <c r="B188" s="6" t="s">
+      <c r="D187" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E187" t="s">
+        <v>467</v>
+      </c>
+      <c r="F187" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="21">
+      <c r="A188">
+        <v>132</v>
+      </c>
+      <c r="B188" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C188" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D188" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" ht="21">
+      <c r="D188" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E188" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="21">
+      <c r="A189">
+        <v>133</v>
+      </c>
       <c r="B189" s="6" t="s">
         <v>172</v>
       </c>
@@ -4663,7 +4744,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="21">
+    <row r="190" spans="1:6" ht="21">
+      <c r="A190">
+        <v>134</v>
+      </c>
       <c r="B190" s="6" t="s">
         <v>172</v>
       </c>
@@ -4674,7 +4758,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="21">
+    <row r="191" spans="1:6" ht="21">
+      <c r="A191">
+        <v>135</v>
+      </c>
       <c r="B191" s="6" t="s">
         <v>172</v>
       </c>
@@ -4685,7 +4772,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="21">
+    <row r="192" spans="1:6" ht="21">
+      <c r="A192">
+        <v>136</v>
+      </c>
       <c r="B192" s="6" t="s">
         <v>172</v>
       </c>
@@ -4696,7 +4786,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="21">
+    <row r="193" spans="1:4" ht="21">
+      <c r="A193">
+        <v>137</v>
+      </c>
       <c r="B193" s="6" t="s">
         <v>172</v>
       </c>
@@ -4707,7 +4800,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="21">
+    <row r="194" spans="1:4" ht="21">
+      <c r="A194">
+        <v>138</v>
+      </c>
       <c r="B194" s="6" t="s">
         <v>172</v>
       </c>
@@ -4718,7 +4814,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="2:4" ht="21">
+    <row r="195" spans="1:4" ht="21">
+      <c r="A195">
+        <v>139</v>
+      </c>
       <c r="B195" s="6" t="s">
         <v>172</v>
       </c>
@@ -4729,7 +4828,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="21">
+    <row r="196" spans="1:4" ht="21">
+      <c r="A196">
+        <v>140</v>
+      </c>
       <c r="B196" s="6" t="s">
         <v>172</v>
       </c>
@@ -4740,7 +4842,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:4" ht="21">
+    <row r="197" spans="1:4" ht="21">
+      <c r="A197">
+        <v>141</v>
+      </c>
       <c r="B197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4751,7 +4856,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="21">
+    <row r="198" spans="1:4" ht="21">
+      <c r="A198">
+        <v>142</v>
+      </c>
       <c r="B198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4762,7 +4870,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="21">
+    <row r="199" spans="1:4" ht="21">
+      <c r="A199">
+        <v>143</v>
+      </c>
       <c r="B199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4773,7 +4884,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="21">
+    <row r="200" spans="1:4" ht="21">
+      <c r="A200">
+        <v>144</v>
+      </c>
       <c r="B200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4784,7 +4898,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="21">
+    <row r="201" spans="1:4" ht="21">
+      <c r="A201">
+        <v>145</v>
+      </c>
       <c r="B201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4795,7 +4912,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="21">
+    <row r="202" spans="1:4" ht="21">
+      <c r="A202">
+        <v>146</v>
+      </c>
       <c r="B202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4806,7 +4926,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="21">
+    <row r="203" spans="1:4" ht="21">
+      <c r="A203">
+        <v>147</v>
+      </c>
       <c r="B203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4817,7 +4940,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:4" ht="21">
+    <row r="204" spans="1:4" ht="21">
+      <c r="A204">
+        <v>148</v>
+      </c>
       <c r="B204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4828,7 +4954,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:4" ht="21">
+    <row r="205" spans="1:4" ht="21">
+      <c r="A205">
+        <v>149</v>
+      </c>
       <c r="B205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4839,7 +4968,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="2:4" ht="21">
+    <row r="206" spans="1:4" ht="21">
+      <c r="A206">
+        <v>150</v>
+      </c>
       <c r="B206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4850,7 +4982,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:4" ht="21">
+    <row r="207" spans="1:4" ht="21">
+      <c r="A207">
+        <v>151</v>
+      </c>
       <c r="B207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4861,7 +4996,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:4" ht="21">
+    <row r="208" spans="1:4" ht="21">
+      <c r="A208">
+        <v>152</v>
+      </c>
       <c r="B208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4872,7 +5010,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="21">
+    <row r="209" spans="1:4" ht="21">
+      <c r="A209">
+        <v>153</v>
+      </c>
       <c r="B209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4883,7 +5024,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="21">
+    <row r="210" spans="1:4" ht="21">
+      <c r="A210">
+        <v>154</v>
+      </c>
       <c r="B210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4894,7 +5038,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="21">
+    <row r="211" spans="1:4" ht="21">
+      <c r="A211">
+        <v>155</v>
+      </c>
       <c r="B211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4905,17 +5052,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="21">
+    <row r="212" spans="1:4" ht="21">
       <c r="B212" s="6"/>
       <c r="C212" s="8"/>
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="2:4" ht="21">
+    <row r="213" spans="1:4" ht="21">
       <c r="B213" s="6"/>
       <c r="C213" s="8"/>
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="2:4" ht="21">
+    <row r="214" spans="1:4" ht="21">
       <c r="B214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4926,7 +5073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="21">
+    <row r="215" spans="1:4" ht="21">
       <c r="B215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4937,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="21">
+    <row r="216" spans="1:4" ht="21">
       <c r="B216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4948,7 +5095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="21">
+    <row r="217" spans="1:4" ht="21">
       <c r="B217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4959,7 +5106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="21">
+    <row r="218" spans="1:4" ht="21">
       <c r="B218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4970,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="21">
+    <row r="219" spans="1:4" ht="21">
       <c r="B219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4981,7 +5128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="21">
+    <row r="220" spans="1:4" ht="21">
       <c r="B220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4992,7 +5139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="21">
+    <row r="221" spans="1:4" ht="21">
       <c r="B221" s="6" t="s">
         <v>208</v>
       </c>
@@ -5003,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="21">
+    <row r="222" spans="1:4" ht="21">
       <c r="B222" s="6" t="s">
         <v>208</v>
       </c>
@@ -5014,7 +5161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="21">
+    <row r="223" spans="1:4" ht="21">
       <c r="B223" s="6" t="s">
         <v>208</v>
       </c>
@@ -5025,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="2:4" ht="21">
+    <row r="224" spans="1:4" ht="21">
       <c r="B224" s="6" t="s">
         <v>208</v>
       </c>
@@ -5786,10 +5933,10 @@
         <v>287</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E296" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="21">
@@ -5803,10 +5950,10 @@
         <v>288</v>
       </c>
       <c r="D297" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E297" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21">
@@ -5820,10 +5967,10 @@
         <v>289</v>
       </c>
       <c r="D298" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E298" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="21">
@@ -5837,10 +5984,10 @@
         <v>290</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E299" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="21">
@@ -5854,10 +6001,10 @@
         <v>291</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E300" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="21">
@@ -5871,10 +6018,10 @@
         <v>292</v>
       </c>
       <c r="D301" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E301" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="21">
@@ -5888,10 +6035,10 @@
         <v>293</v>
       </c>
       <c r="D302" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="21">
@@ -5905,13 +6052,13 @@
         <v>294</v>
       </c>
       <c r="D303" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E303" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F303" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="21">
@@ -5925,10 +6072,10 @@
         <v>295</v>
       </c>
       <c r="D304" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E304" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="21">
@@ -5942,10 +6089,10 @@
         <v>296</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E305" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="21">
@@ -5959,13 +6106,13 @@
         <v>297</v>
       </c>
       <c r="D306" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E306" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F306" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="21">
@@ -5979,10 +6126,10 @@
         <v>298</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E307" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="21">
@@ -5996,10 +6143,10 @@
         <v>299</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E308" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="21">
@@ -6013,10 +6160,10 @@
         <v>300</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E309" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="21">
@@ -6030,10 +6177,10 @@
         <v>301</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E310" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="21">
@@ -6047,10 +6194,10 @@
         <v>302</v>
       </c>
       <c r="D311" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E311" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="21">
@@ -6064,10 +6211,10 @@
         <v>303</v>
       </c>
       <c r="D312" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E312" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="21">
@@ -6081,10 +6228,10 @@
         <v>304</v>
       </c>
       <c r="D313" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E313" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F313" s="17"/>
     </row>
@@ -6099,10 +6246,10 @@
         <v>305</v>
       </c>
       <c r="D314" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E314" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F314" s="17"/>
     </row>
@@ -6117,10 +6264,10 @@
         <v>306</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E315" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F315" s="17"/>
     </row>
@@ -6135,12 +6282,14 @@
         <v>307</v>
       </c>
       <c r="D316" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E316" t="s">
-        <v>469</v>
-      </c>
-      <c r="F316" s="17"/>
+        <v>468</v>
+      </c>
+      <c r="F316" s="17" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="317" spans="1:6" ht="21">
       <c r="A317">
@@ -6153,10 +6302,10 @@
         <v>308</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E317" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F317" s="17"/>
     </row>
@@ -6171,10 +6320,10 @@
         <v>309</v>
       </c>
       <c r="D318" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E318" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F318" s="17"/>
     </row>
@@ -6189,10 +6338,10 @@
         <v>310</v>
       </c>
       <c r="D319" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E319" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F319" s="17"/>
     </row>
@@ -6207,10 +6356,10 @@
         <v>311</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F320" s="17"/>
     </row>
@@ -6218,17 +6367,17 @@
       <c r="A321">
         <v>108</v>
       </c>
-      <c r="B321" s="23" t="s">
+      <c r="B321" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C321" s="26" t="s">
+      <c r="C321" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D321" s="34" t="s">
-        <v>476</v>
+      <c r="D321" s="25" t="s">
+        <v>467</v>
       </c>
       <c r="E321" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F321" s="17"/>
     </row>
@@ -6243,13 +6392,13 @@
         <v>313</v>
       </c>
       <c r="D322" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E322" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F322" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="21">
@@ -6263,10 +6412,10 @@
         <v>314</v>
       </c>
       <c r="D323" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F323" s="17"/>
     </row>
@@ -6281,10 +6430,10 @@
         <v>315</v>
       </c>
       <c r="D324" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E324" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F324" s="17"/>
     </row>
@@ -6299,12 +6448,12 @@
         <v>316</v>
       </c>
       <c r="D325" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E325" t="s">
-        <v>468</v>
-      </c>
-      <c r="F325" s="36"/>
+        <v>467</v>
+      </c>
+      <c r="F325" s="35"/>
     </row>
     <row r="326" spans="1:6" ht="21">
       <c r="A326">
@@ -6317,10 +6466,10 @@
         <v>317</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E326" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="21">
@@ -6334,94 +6483,115 @@
         <v>318</v>
       </c>
       <c r="D327" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E327" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="21">
       <c r="A328">
         <v>115</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B328" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C328" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D328" s="9" t="s">
-        <v>5</v>
+      <c r="D328" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E328" t="s">
+        <v>467</v>
+      </c>
+      <c r="F328" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="21">
       <c r="A329">
         <v>116</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B329" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D329" s="9" t="s">
-        <v>5</v>
+      <c r="D329" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E329" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="21">
       <c r="A330">
         <v>117</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B330" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C330" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D330" s="9" t="s">
-        <v>5</v>
+      <c r="D330" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E330" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="21">
       <c r="A331">
         <v>118</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B331" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C331" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D331" s="9" t="s">
-        <v>5</v>
+      <c r="D331" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E331" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="21">
       <c r="A332">
         <v>119</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="B332" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C332" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D332" s="9" t="s">
-        <v>5</v>
+      <c r="D332" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E332" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="21">
       <c r="A333">
         <v>120</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B333" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C333" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D333" s="9" t="s">
-        <v>5</v>
+      <c r="D333" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E333" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC78111-373E-4108-9E85-0F6BF881FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E7CF3-34C0-47C7-8475-B9D87172BD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1510,13 +1510,16 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/print-a-binary-tree-in-vertical-order-set-3-using-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1630,6 +1633,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1694,7 +1706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,6 +1779,8 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2152,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="B197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2395,7 +2409,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21">
+    <row r="17" spans="1:6" ht="21">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2412,7 +2426,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21">
+    <row r="18" spans="1:6" ht="21">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2429,7 +2443,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21">
+    <row r="19" spans="1:6" ht="21">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2446,7 +2460,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21">
+    <row r="20" spans="1:6" ht="21">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2463,14 +2477,14 @@
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21">
+    <row r="21" spans="1:6" ht="21">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -2479,15 +2493,18 @@
       <c r="E21" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="21">
+      <c r="F21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="36" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -2497,7 +2514,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21">
+    <row r="23" spans="1:6" ht="21">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2514,7 +2531,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21">
+    <row r="24" spans="1:6" ht="21">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2531,7 +2548,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21">
+    <row r="25" spans="1:6" ht="21">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2548,7 +2565,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21">
+    <row r="26" spans="1:6" ht="21">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2565,7 +2582,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21">
+    <row r="27" spans="1:6" ht="21">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2582,7 +2599,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21">
+    <row r="28" spans="1:6" ht="21">
       <c r="A28">
         <v>23</v>
       </c>
@@ -2599,7 +2616,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21">
+    <row r="29" spans="1:6" ht="21">
       <c r="A29">
         <v>24</v>
       </c>
@@ -2616,7 +2633,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21">
+    <row r="30" spans="1:6" ht="21">
       <c r="A30">
         <v>25</v>
       </c>
@@ -2633,14 +2650,14 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21">
+    <row r="31" spans="1:6" ht="21">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="31" t="s">
@@ -2650,7 +2667,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21">
+    <row r="32" spans="1:6" ht="21">
       <c r="A32">
         <v>27</v>
       </c>
@@ -4734,269 +4751,326 @@
       <c r="A189">
         <v>133</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D189" s="9" t="s">
-        <v>5</v>
+      <c r="D189" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E189" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="21">
       <c r="A190">
         <v>134</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C190" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D190" s="9" t="s">
-        <v>5</v>
+      <c r="D190" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E190" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="21">
       <c r="A191">
         <v>135</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D191" s="9" t="s">
-        <v>5</v>
+      <c r="D191" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E191" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="21">
       <c r="A192">
         <v>136</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D192" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="21">
+      <c r="D192" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E192" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="21">
       <c r="A193">
         <v>137</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D193" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="21">
+      <c r="D193" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E193" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="21">
       <c r="A194">
         <v>138</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D194" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="21">
+      <c r="D194" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E194" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="21">
       <c r="A195">
         <v>139</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D195" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="21">
+      <c r="D195" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E195" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="21">
       <c r="A196">
         <v>140</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D196" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="21">
+      <c r="D196" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E196" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="21">
       <c r="A197">
         <v>141</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D197" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="21">
+      <c r="D197" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E197" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="21">
       <c r="A198">
         <v>142</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C198" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D198" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="21">
+      <c r="D198" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E198" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="21">
       <c r="A199">
         <v>143</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D199" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="21">
+      <c r="D199" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E199" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="21">
       <c r="A200">
         <v>144</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D200" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="21">
+      <c r="D200" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E200" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="21">
       <c r="A201">
         <v>145</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D201" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="21">
+      <c r="D201" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E201" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="21">
       <c r="A202">
         <v>146</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C202" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D202" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="21">
+      <c r="D202" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E202" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="21">
       <c r="A203">
         <v>147</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D203" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="21">
+      <c r="D203" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E203" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="21">
       <c r="A204">
         <v>148</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C204" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D204" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="21">
+      <c r="D204" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E204" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="21">
       <c r="A205">
         <v>149</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D205" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="21">
+      <c r="D205" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E205" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="21">
       <c r="A206">
         <v>150</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D206" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="21">
+      <c r="D206" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E206" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="21">
       <c r="A207">
         <v>151</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D207" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="21">
+      <c r="D207" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E207" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="21">
       <c r="A208">
         <v>152</v>
       </c>
@@ -8342,265 +8416,265 @@
     <hyperlink ref="C202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
     <hyperlink ref="C203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="C204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="C225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="C258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="C260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="C264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="C266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="C268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="C270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="C271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="C272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="C276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="C279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="C281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="C282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="C283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="C284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="C285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="C286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="C287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="C288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="C289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="C290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="C291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="C292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="C293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="C296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="C297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="C298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="C299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="C300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="C301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="C302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="C303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="C304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="C305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="C306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="C307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="C308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="C309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="C310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="C311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="C312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="C313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="C314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="C315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="C316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="C317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="C318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="C319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="C320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="C321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="C322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="C323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="C324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="C325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="C326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="C327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="C328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="C329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="C330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="C331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="C332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="C333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="C336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="C337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="C338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="C339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="C340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="C341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="C342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="C343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="C344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="C345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="C346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="C347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="C348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="C349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="C350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="C351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="C352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="C353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="C356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="C357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="C358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="C359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="C360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="C361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="C362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="C363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="C364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="C365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="C366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="C367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="C368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="C369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="C370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="C371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="C372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="C373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="C374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="C375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="C376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="C377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="C378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="C379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="C380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="C381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="C382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="C383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="C384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="C385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="C386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="C387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="C388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="C389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="C390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="C391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="C392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="C393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="C394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="C395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="C396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="C397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="C398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="C399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="C402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="C403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="C404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="C405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="C406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="C407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="C410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="C411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="C412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="C413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="C414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="C415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="C416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="C417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="C418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="C419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="C420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="C421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="C422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="C423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="C424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="C425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="C426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="C427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="C428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="C429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="C430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="C431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="C432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="C433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="C434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="C435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="C436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="C437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="C438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="C439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="C440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="C441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="C442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="C443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="C444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="C445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="C446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="C447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="C448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="C449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="C450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="C451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="C452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="C453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="C454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="C455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="C456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="C457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="C458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="C459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="C460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="C461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="C462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="C463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="C464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="C465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="C466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="C467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="C468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="C469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="C472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="C473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="C474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="C475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="C476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="C477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="C478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="C479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="C481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C207" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C208" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C209" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C210" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C211" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C214" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C215" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C216" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C217" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C218" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C219" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C220" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C221" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C222" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C223" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C224" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C225" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C226" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C227" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C228" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C229" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C230" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C231" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C232" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C233" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C234" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C235" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C238" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C239" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C240" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C241" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C242" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C243" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C244" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C245" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C246" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C247" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C248" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C249" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C250" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C251" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C252" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C253" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C254" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C255" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C256" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C258" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C259" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C260" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C261" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C262" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C263" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C264" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C265" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C266" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C267" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C268" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C269" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C270" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C271" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C272" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C275" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C276" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C277" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C278" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C279" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C280" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C281" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C282" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C283" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C284" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C285" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C286" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C287" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C288" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C289" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C290" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C291" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C292" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C293" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C296" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C297" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C298" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C299" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C300" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C301" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C302" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C303" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C304" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C305" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C307" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C308" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C309" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C310" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C311" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C312" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C313" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C314" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C315" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C316" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C317" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C318" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C319" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C320" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C321" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C322" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C323" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C324" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C325" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C326" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C327" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C328" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C329" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C330" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C331" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C332" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C333" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C336" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C337" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C338" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C339" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C340" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C341" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C342" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C343" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C344" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C345" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C346" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C347" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C348" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C349" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C350" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C351" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C352" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C353" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C356" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C395" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C396" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C450" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C451" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C463" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C464" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C465" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C467" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C468" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C469" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C479" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C481" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C206" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C205" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId447"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E7CF3-34C0-47C7-8475-B9D87172BD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CDFBF0-7AF4-4E48-9141-457B44A83B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="500">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1513,6 +1513,18 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/avl-tree-set-1-insertion/</t>
+  </si>
+  <si>
+    <t>links in comments in code</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/inorder-tree-traversal-without-recursion-and-without-stack/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wGXB9OWhPTg&amp;ab_channel=TusharRoy-CodingMadeSimple</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1781,6 +1793,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2166,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2405,7 +2418,7 @@
       <c r="E16" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="38" t="s">
         <v>483</v>
       </c>
     </row>
@@ -2493,7 +2506,7 @@
       <c r="E21" t="s">
         <v>467</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="38" t="s">
         <v>495</v>
       </c>
     </row>
@@ -2802,7 +2815,7 @@
       <c r="E39" t="s">
         <v>480</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="38" t="s">
         <v>478</v>
       </c>
     </row>
@@ -2822,7 +2835,7 @@
       <c r="E40" t="s">
         <v>481</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="38" t="s">
         <v>479</v>
       </c>
     </row>
@@ -2991,7 +3004,7 @@
       <c r="E51" t="s">
         <v>467</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="38" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4305,7 +4318,7 @@
       <c r="E161" t="s">
         <v>467</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="38" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4359,7 +4372,7 @@
       <c r="E164" t="s">
         <v>467</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="38" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4379,7 +4392,7 @@
       <c r="E165" t="s">
         <v>467</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="38" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4641,6 +4654,9 @@
       <c r="E182" t="s">
         <v>467</v>
       </c>
+      <c r="F182" s="38" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="183" spans="1:6" ht="21">
       <c r="A183">
@@ -4726,7 +4742,7 @@
       <c r="E187" t="s">
         <v>467</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="38" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5074,256 +5090,382 @@
       <c r="A208">
         <v>152</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D208" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="21">
+      <c r="D208" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E208" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="21">
       <c r="A209">
         <v>153</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D209" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="21">
+      <c r="D209" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E209" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="21">
       <c r="A210">
         <v>154</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D210" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="21">
+      <c r="D210" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E210" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="21">
       <c r="A211">
         <v>155</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D211" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="21">
+      <c r="D211" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E211" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="21">
       <c r="B212" s="6"/>
       <c r="C212" s="8"/>
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="1:4" ht="21">
+    <row r="213" spans="1:6" ht="21">
       <c r="B213" s="6"/>
       <c r="C213" s="8"/>
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="1:4" ht="21">
-      <c r="B214" s="6" t="s">
+    <row r="214" spans="1:6" ht="21">
+      <c r="A214">
+        <v>156</v>
+      </c>
+      <c r="B214" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D214" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="21">
-      <c r="B215" s="6" t="s">
+      <c r="D214" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E214" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="21">
+      <c r="A215">
+        <v>157</v>
+      </c>
+      <c r="B215" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D215" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="21">
-      <c r="B216" s="6" t="s">
+      <c r="D215" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E215" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="21">
+      <c r="A216">
+        <v>158</v>
+      </c>
+      <c r="B216" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="21">
-      <c r="B217" s="6" t="s">
+      <c r="D216" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E216" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="21">
+      <c r="A217">
+        <v>159</v>
+      </c>
+      <c r="B217" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="21">
-      <c r="B218" s="6" t="s">
+      <c r="D217" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E217" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="21">
+      <c r="A218">
+        <v>160</v>
+      </c>
+      <c r="B218" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D218" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="21">
-      <c r="B219" s="6" t="s">
+      <c r="D218" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E218" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="21">
+      <c r="A219">
+        <v>161</v>
+      </c>
+      <c r="B219" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D219" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="21">
-      <c r="B220" s="6" t="s">
+      <c r="D219" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E219" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="21">
+      <c r="A220">
+        <v>162</v>
+      </c>
+      <c r="B220" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="D220" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="21">
-      <c r="B221" s="6" t="s">
+      <c r="D220" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E220" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="21">
+      <c r="A221">
+        <v>163</v>
+      </c>
+      <c r="B221" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D221" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="21">
-      <c r="B222" s="6" t="s">
+      <c r="D221" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E221" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="21">
+      <c r="A222">
+        <v>164</v>
+      </c>
+      <c r="B222" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="D222" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="21">
-      <c r="B223" s="6" t="s">
+      <c r="D222" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E222" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="21">
+      <c r="A223">
+        <v>165</v>
+      </c>
+      <c r="B223" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D223" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="21">
-      <c r="B224" s="6" t="s">
+      <c r="D223" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" t="s">
+        <v>467</v>
+      </c>
+      <c r="F223" s="38" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="21">
+      <c r="A224">
+        <v>166</v>
+      </c>
+      <c r="B224" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D224" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" ht="21">
-      <c r="B225" s="6" t="s">
+      <c r="D224" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E224" t="s">
+        <v>467</v>
+      </c>
+      <c r="F224" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="21">
+      <c r="A225">
+        <v>167</v>
+      </c>
+      <c r="B225" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D225" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4" ht="21">
-      <c r="B226" s="6" t="s">
+      <c r="D225" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E225" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="21">
+      <c r="A226">
+        <v>168</v>
+      </c>
+      <c r="B226" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D226" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" ht="21">
-      <c r="B227" s="6" t="s">
+      <c r="D226" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E226" t="s">
+        <v>467</v>
+      </c>
+      <c r="F226" s="38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="21">
+      <c r="A227">
+        <v>169</v>
+      </c>
+      <c r="B227" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D227" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" ht="21">
-      <c r="B228" s="6" t="s">
+      <c r="D227" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E227" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="21">
+      <c r="A228">
+        <v>170</v>
+      </c>
+      <c r="B228" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D228" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4" ht="21">
-      <c r="B229" s="6" t="s">
+      <c r="D228" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E228" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="21">
+      <c r="A229">
+        <v>171</v>
+      </c>
+      <c r="B229" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D229" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4" ht="21">
-      <c r="B230" s="6" t="s">
+      <c r="D229" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E229" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="21">
+      <c r="A230">
+        <v>172</v>
+      </c>
+      <c r="B230" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D230" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4" ht="21">
+      <c r="D230" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="E230" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="21">
+      <c r="A231">
+        <v>173</v>
+      </c>
       <c r="B231" s="6" t="s">
         <v>208</v>
       </c>
@@ -5334,7 +5476,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="21">
+    <row r="232" spans="1:6" ht="21">
+      <c r="A232">
+        <v>174</v>
+      </c>
       <c r="B232" s="6" t="s">
         <v>208</v>
       </c>
@@ -5345,7 +5490,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="21">
+    <row r="233" spans="1:6" ht="21">
+      <c r="A233">
+        <v>175</v>
+      </c>
       <c r="B233" s="6" t="s">
         <v>208</v>
       </c>
@@ -5356,7 +5504,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="21">
+    <row r="234" spans="1:6" ht="21">
+      <c r="A234">
+        <v>176</v>
+      </c>
       <c r="B234" s="6" t="s">
         <v>208</v>
       </c>
@@ -5367,7 +5518,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:4" ht="21">
+    <row r="235" spans="1:6" ht="21">
+      <c r="A235">
+        <v>177</v>
+      </c>
       <c r="B235" s="6" t="s">
         <v>208</v>
       </c>
@@ -5378,15 +5532,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:4" ht="21">
+    <row r="236" spans="1:6" ht="21">
       <c r="C236" s="8"/>
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="2:4" ht="21">
+    <row r="237" spans="1:6" ht="21">
       <c r="C237" s="8"/>
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="2:4" ht="21">
+    <row r="238" spans="1:6" ht="21">
       <c r="B238" s="6" t="s">
         <v>231</v>
       </c>
@@ -5397,7 +5551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="21">
+    <row r="239" spans="1:6" ht="21">
       <c r="B239" s="6" t="s">
         <v>231</v>
       </c>
@@ -5408,7 +5562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="21">
+    <row r="240" spans="1:6" ht="21">
       <c r="B240" s="6" t="s">
         <v>231</v>
       </c>
@@ -6131,7 +6285,7 @@
       <c r="E303" t="s">
         <v>467</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="38" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6185,7 +6339,7 @@
       <c r="E306" t="s">
         <v>467</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="38" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6361,7 +6515,7 @@
       <c r="E316" t="s">
         <v>468</v>
       </c>
-      <c r="F316" s="17" t="s">
+      <c r="F316" s="38" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6471,7 +6625,7 @@
       <c r="E322" t="s">
         <v>468</v>
       </c>
-      <c r="F322" s="17" t="s">
+      <c r="F322" s="38" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8675,8 +8829,23 @@
     <hyperlink ref="C481" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
     <hyperlink ref="C206" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
     <hyperlink ref="C205" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F187" r:id="rId447" xr:uid="{EE53B277-205C-4364-B4AC-A4C21D47A22E}"/>
+    <hyperlink ref="F182" r:id="rId448" xr:uid="{F3F1152E-FF97-49CD-BF76-50FD8BFC91CE}"/>
+    <hyperlink ref="F223" r:id="rId449" xr:uid="{DD98D22B-3F36-4AED-A589-27275A914741}"/>
+    <hyperlink ref="F165" r:id="rId450" xr:uid="{0A34F150-FA9C-48BA-995D-F3E43C20F37F}"/>
+    <hyperlink ref="F164" r:id="rId451" xr:uid="{49CA8565-971B-421A-B4BA-8379711B1849}"/>
+    <hyperlink ref="F161" r:id="rId452" xr:uid="{EB09B99E-4109-4462-8E1E-F7301883DF8C}"/>
+    <hyperlink ref="F51" r:id="rId453" xr:uid="{39B5B4EF-EC99-41BC-B94E-1B1BE1B236CD}"/>
+    <hyperlink ref="F40" r:id="rId454" xr:uid="{D92E6C55-67A9-4E1C-AD34-811C029D7666}"/>
+    <hyperlink ref="F39" r:id="rId455" xr:uid="{6DDE1B1B-14D4-4E76-81BD-640FFDBDEFE1}"/>
+    <hyperlink ref="F21" r:id="rId456" xr:uid="{C533FC1E-F228-4DBF-9788-03C422F7D4B1}"/>
+    <hyperlink ref="F16" r:id="rId457" xr:uid="{DDAB7A69-2818-48A3-920B-842DE9BEEBEF}"/>
+    <hyperlink ref="F303" r:id="rId458" xr:uid="{477E7E05-0F90-41CC-AC25-3E5BACABE644}"/>
+    <hyperlink ref="F306" r:id="rId459" xr:uid="{5A36384D-42B3-4AF5-AD70-7144403C714E}"/>
+    <hyperlink ref="F316" r:id="rId460" xr:uid="{1EEF5289-C2AB-4D6F-9A49-B1BED6347851}"/>
+    <hyperlink ref="F322" r:id="rId461" xr:uid="{674CB3A4-78EF-44D3-B4CD-9474022ED336}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId447"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId462"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yashraj\Desktop\C++\competitive\DSA_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CDFBF0-7AF4-4E48-9141-457B44A83B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC1C53-9DDA-427D-A737-31C22AAC55DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="497">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,66 +1425,30 @@
     <t>KEY</t>
   </si>
   <si>
-    <t>Revise[yes or no]</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes(9 or 10)</t>
-  </si>
-  <si>
-    <t>didn’t understand the correct approach</t>
-  </si>
-  <si>
     <t>DONE</t>
   </si>
   <si>
     <t>NOT DONE</t>
   </si>
   <si>
-    <t>yes(8 or 13)</t>
-  </si>
-  <si>
-    <t>didn’t try</t>
-  </si>
-  <si>
     <t>still trying</t>
   </si>
   <si>
-    <t>yes(4 or 5 or 32)</t>
-  </si>
-  <si>
-    <t>yes(35 or 36)</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/</t>
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/median-of-two-sorted-arrays/</t>
   </si>
   <si>
-    <t>yes, correct link:</t>
-  </si>
-  <si>
-    <t>yes(35 or 36), correct link:</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LUm2ABqAs1w&amp;ab_channel=VivekanandKhyade-AlgorithmEveryDay</t>
   </si>
   <si>
-    <t>yes(11 or 49 or 50 or 51)</t>
-  </si>
-  <si>
-    <t>yes(47 or 48)</t>
-  </si>
-  <si>
     <t>https://practice.geeksforgeeks.org/problems/nearly-sorted-algorithm/0</t>
   </si>
   <si>
@@ -1525,13 +1489,40 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wGXB9OWhPTg&amp;ab_channel=TusharRoy-CodingMadeSimple</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/interval-tree/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/maximum-and-minimum-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/boyer-moore-majority-voting-algorithm/</t>
+  </si>
+  <si>
+    <t>look into the binary search approach</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/the-painters-partition-problem1535/1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/meet-in-the-middle/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/graph-and-its-representations/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/15646780/priority-queue-of-nodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1616,14 +1607,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1718,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1759,7 +1742,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1776,7 +1758,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1789,10 +1771,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2177,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15.75"/>
@@ -2188,31 +2170,30 @@
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="107.5" customWidth="1"/>
     <col min="4" max="4" width="40.875" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="94.125" customWidth="1"/>
-    <col min="7" max="63" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="94.125" customWidth="1"/>
+    <col min="6" max="62" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="F3" s="16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21">
+    <row r="3" spans="1:5">
+      <c r="E3" s="16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2222,17 +2203,14 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2243,13 +2221,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2260,13 +2235,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2276,14 +2248,11 @@
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21">
+      <c r="D8" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2294,13 +2263,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2311,13 +2277,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2328,13 +2291,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2345,13 +2305,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2362,47 +2319,38 @@
         <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="29" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2413,16 +2361,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2432,14 +2377,11 @@
       <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21">
+      <c r="D17" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2450,13 +2392,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E18" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2466,14 +2405,11 @@
       <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21">
+      <c r="D19" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2483,14 +2419,11 @@
       <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21">
+      <c r="D20" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2500,34 +2433,28 @@
       <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E21" t="s">
-        <v>467</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21">
+      <c r="D21" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21">
+      <c r="D22" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2537,14 +2464,11 @@
       <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21">
+      <c r="D23" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2554,14 +2478,11 @@
       <c r="C24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E24" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21">
+      <c r="D24" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2571,14 +2492,11 @@
       <c r="C25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21">
+      <c r="D25" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2588,14 +2506,11 @@
       <c r="C26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="E26" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21">
+      <c r="D26" s="28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2605,31 +2520,25 @@
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="E27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21">
+      <c r="D27" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="E28" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21">
+      <c r="D28" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21">
       <c r="A29">
         <v>24</v>
       </c>
@@ -2640,47 +2549,38 @@
         <v>30</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21">
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="21">
+      <c r="D30" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21">
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="E31" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21">
+      <c r="D31" s="30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21">
       <c r="A32">
         <v>27</v>
       </c>
@@ -2691,13 +2591,10 @@
         <v>33</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E32" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21">
       <c r="A33">
         <v>28</v>
       </c>
@@ -2708,30 +2605,24 @@
         <v>34</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21">
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="E34" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="21">
+      <c r="D34" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21">
       <c r="A35">
         <v>30</v>
       </c>
@@ -2742,30 +2633,24 @@
         <v>36</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E35" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21">
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="E36" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="21">
+      <c r="D36" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21">
       <c r="A37">
         <v>32</v>
       </c>
@@ -2775,31 +2660,25 @@
       <c r="C37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="E37" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="21">
+      <c r="D37" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21">
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="21">
+      <c r="D38" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21">
       <c r="A39">
         <v>34</v>
       </c>
@@ -2810,16 +2689,13 @@
         <v>40</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E39" t="s">
-        <v>480</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21">
       <c r="A40">
         <v>35</v>
       </c>
@@ -2830,224 +2706,191 @@
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E40" t="s">
-        <v>481</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="21">
+        <v>466</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21">
       <c r="A41">
         <v>36</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E41" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="21">
+      <c r="D41" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21">
       <c r="C42" s="8"/>
       <c r="D42" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21">
+    <row r="43" spans="1:5" ht="21">
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21">
+    <row r="44" spans="1:5" ht="21">
       <c r="A44">
         <v>37</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E44" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="21">
+      <c r="D44" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21">
       <c r="A45">
         <v>38</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E45" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="21">
+      <c r="D45" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21">
       <c r="A46">
         <v>39</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E46" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="21">
+      <c r="D46" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21">
       <c r="A47">
         <v>40</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E47" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="21">
+      <c r="D47" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21">
       <c r="A48">
         <v>41</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E48" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="21">
+      <c r="D48" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21">
       <c r="A49">
         <v>42</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E49" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="21">
+      <c r="D49" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21">
       <c r="A50">
         <v>43</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E50" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="21">
+      <c r="D50" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21">
       <c r="A51">
         <v>44</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E51" t="s">
-        <v>467</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="21">
+      <c r="D51" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21">
       <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E52" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="21">
+      <c r="D52" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21">
       <c r="A53">
         <v>46</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E53" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="21">
+      <c r="D53" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21">
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:6" ht="21">
+    <row r="56" spans="1:5" ht="21">
+      <c r="A56">
+        <v>390</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
@@ -3058,7 +2901,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="21">
+    <row r="57" spans="1:5" ht="21">
+      <c r="A57">
+        <v>391</v>
+      </c>
       <c r="B57" s="6" t="s">
         <v>54</v>
       </c>
@@ -3069,7 +2915,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="21">
+    <row r="58" spans="1:5" ht="21">
+      <c r="A58">
+        <v>392</v>
+      </c>
       <c r="B58" s="6" t="s">
         <v>54</v>
       </c>
@@ -3080,7 +2929,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="21">
+    <row r="59" spans="1:5" ht="21">
+      <c r="A59">
+        <v>393</v>
+      </c>
       <c r="B59" s="6" t="s">
         <v>54</v>
       </c>
@@ -3091,7 +2943,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21">
+    <row r="60" spans="1:5" ht="21">
+      <c r="A60">
+        <v>394</v>
+      </c>
       <c r="B60" s="6" t="s">
         <v>54</v>
       </c>
@@ -3102,7 +2957,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21">
+    <row r="61" spans="1:5" ht="21">
+      <c r="A61">
+        <v>395</v>
+      </c>
       <c r="B61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3113,7 +2971,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="21">
+    <row r="62" spans="1:5" ht="21">
+      <c r="A62">
+        <v>396</v>
+      </c>
       <c r="B62" s="6" t="s">
         <v>54</v>
       </c>
@@ -3124,7 +2985,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21">
+    <row r="63" spans="1:5" ht="21">
+      <c r="A63">
+        <v>397</v>
+      </c>
       <c r="B63" s="6" t="s">
         <v>54</v>
       </c>
@@ -3135,7 +2999,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21">
+    <row r="64" spans="1:5" ht="21">
+      <c r="A64">
+        <v>398</v>
+      </c>
       <c r="B64" s="6" t="s">
         <v>54</v>
       </c>
@@ -3146,7 +3013,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="21">
+    <row r="65" spans="1:4" ht="21">
+      <c r="A65">
+        <v>399</v>
+      </c>
       <c r="B65" s="6" t="s">
         <v>54</v>
       </c>
@@ -3157,7 +3027,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="21">
+    <row r="66" spans="1:4" ht="21">
+      <c r="A66">
+        <v>400</v>
+      </c>
       <c r="B66" s="6" t="s">
         <v>54</v>
       </c>
@@ -3168,7 +3041,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="21">
+    <row r="67" spans="1:4" ht="21">
+      <c r="A67">
+        <v>401</v>
+      </c>
       <c r="B67" s="6" t="s">
         <v>54</v>
       </c>
@@ -3179,7 +3055,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="21">
+    <row r="68" spans="1:4" ht="21">
+      <c r="A68">
+        <v>402</v>
+      </c>
       <c r="B68" s="6" t="s">
         <v>54</v>
       </c>
@@ -3190,7 +3069,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="21">
+    <row r="69" spans="1:4" ht="21">
+      <c r="A69">
+        <v>403</v>
+      </c>
       <c r="B69" s="6" t="s">
         <v>54</v>
       </c>
@@ -3201,7 +3083,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="21">
+    <row r="70" spans="1:4" ht="21">
+      <c r="A70">
+        <v>404</v>
+      </c>
       <c r="B70" s="6" t="s">
         <v>54</v>
       </c>
@@ -3212,7 +3097,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="21">
+    <row r="71" spans="1:4" ht="21">
+      <c r="A71">
+        <v>405</v>
+      </c>
       <c r="B71" s="6" t="s">
         <v>54</v>
       </c>
@@ -3223,7 +3111,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="21">
+    <row r="72" spans="1:4" ht="21">
+      <c r="A72">
+        <v>406</v>
+      </c>
       <c r="B72" s="6" t="s">
         <v>54</v>
       </c>
@@ -3234,7 +3125,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="21">
+    <row r="73" spans="1:4" ht="21">
+      <c r="A73">
+        <v>407</v>
+      </c>
       <c r="B73" s="6" t="s">
         <v>54</v>
       </c>
@@ -3245,7 +3139,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="21">
+    <row r="74" spans="1:4" ht="21">
+      <c r="A74">
+        <v>408</v>
+      </c>
       <c r="B74" s="6" t="s">
         <v>54</v>
       </c>
@@ -3256,7 +3153,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="21">
+    <row r="75" spans="1:4" ht="21">
+      <c r="A75">
+        <v>409</v>
+      </c>
       <c r="B75" s="6" t="s">
         <v>54</v>
       </c>
@@ -3267,7 +3167,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="21">
+    <row r="76" spans="1:4" ht="21">
+      <c r="A76">
+        <v>410</v>
+      </c>
       <c r="B76" s="6" t="s">
         <v>54</v>
       </c>
@@ -3278,7 +3181,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="21">
+    <row r="77" spans="1:4" ht="21">
+      <c r="A77">
+        <v>411</v>
+      </c>
       <c r="B77" s="6" t="s">
         <v>54</v>
       </c>
@@ -3289,7 +3195,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="21">
+    <row r="78" spans="1:4" ht="21">
+      <c r="A78">
+        <v>412</v>
+      </c>
       <c r="B78" s="6" t="s">
         <v>54</v>
       </c>
@@ -3300,7 +3209,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="21">
+    <row r="79" spans="1:4" ht="21">
+      <c r="A79">
+        <v>413</v>
+      </c>
       <c r="B79" s="6" t="s">
         <v>54</v>
       </c>
@@ -3311,7 +3223,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="21">
+    <row r="80" spans="1:4" ht="21">
+      <c r="A80">
+        <v>414</v>
+      </c>
       <c r="B80" s="6" t="s">
         <v>54</v>
       </c>
@@ -3322,7 +3237,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="21">
+    <row r="81" spans="1:4" ht="21">
+      <c r="A81">
+        <v>415</v>
+      </c>
       <c r="B81" s="6" t="s">
         <v>54</v>
       </c>
@@ -3333,7 +3251,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="21">
+    <row r="82" spans="1:4" ht="21">
+      <c r="A82">
+        <v>416</v>
+      </c>
       <c r="B82" s="6" t="s">
         <v>54</v>
       </c>
@@ -3344,7 +3265,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="21">
+    <row r="83" spans="1:4" ht="21">
+      <c r="A83">
+        <v>417</v>
+      </c>
       <c r="B83" s="6" t="s">
         <v>54</v>
       </c>
@@ -3355,7 +3279,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="21">
+    <row r="84" spans="1:4" ht="21">
+      <c r="A84">
+        <v>418</v>
+      </c>
       <c r="B84" s="6" t="s">
         <v>54</v>
       </c>
@@ -3366,7 +3293,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="21">
+    <row r="85" spans="1:4" ht="21">
+      <c r="A85">
+        <v>419</v>
+      </c>
       <c r="B85" s="6" t="s">
         <v>54</v>
       </c>
@@ -3377,7 +3307,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="21">
+    <row r="86" spans="1:4" ht="21">
+      <c r="A86">
+        <v>420</v>
+      </c>
       <c r="B86" s="6" t="s">
         <v>54</v>
       </c>
@@ -3388,7 +3321,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="21">
+    <row r="87" spans="1:4" ht="21">
+      <c r="A87">
+        <v>421</v>
+      </c>
       <c r="B87" s="6" t="s">
         <v>54</v>
       </c>
@@ -3399,7 +3335,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="21">
+    <row r="88" spans="1:4" ht="21">
+      <c r="A88">
+        <v>422</v>
+      </c>
       <c r="B88" s="6" t="s">
         <v>54</v>
       </c>
@@ -3410,7 +3349,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="21">
+    <row r="89" spans="1:4" ht="21">
+      <c r="A89">
+        <v>423</v>
+      </c>
       <c r="B89" s="6" t="s">
         <v>54</v>
       </c>
@@ -3421,7 +3363,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="21">
+    <row r="90" spans="1:4" ht="21">
+      <c r="A90">
+        <v>424</v>
+      </c>
       <c r="B90" s="6" t="s">
         <v>54</v>
       </c>
@@ -3432,7 +3377,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="21">
+    <row r="91" spans="1:4" ht="21">
+      <c r="A91">
+        <v>425</v>
+      </c>
       <c r="B91" s="6" t="s">
         <v>54</v>
       </c>
@@ -3443,7 +3391,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="21">
+    <row r="92" spans="1:4" ht="21">
+      <c r="A92">
+        <v>426</v>
+      </c>
       <c r="B92" s="6" t="s">
         <v>54</v>
       </c>
@@ -3454,7 +3405,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="21">
+    <row r="93" spans="1:4" ht="21">
+      <c r="A93">
+        <v>427</v>
+      </c>
       <c r="B93" s="6" t="s">
         <v>54</v>
       </c>
@@ -3465,7 +3419,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="21">
+    <row r="94" spans="1:4" ht="21">
+      <c r="A94">
+        <v>428</v>
+      </c>
       <c r="B94" s="6" t="s">
         <v>54</v>
       </c>
@@ -3476,7 +3433,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="21">
+    <row r="95" spans="1:4" ht="21">
+      <c r="A95">
+        <v>429</v>
+      </c>
       <c r="B95" s="6" t="s">
         <v>54</v>
       </c>
@@ -3487,7 +3447,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="21">
+    <row r="96" spans="1:4" ht="21">
+      <c r="A96">
+        <v>430</v>
+      </c>
       <c r="B96" s="6" t="s">
         <v>54</v>
       </c>
@@ -3498,7 +3461,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="21">
+    <row r="97" spans="1:5" ht="21">
+      <c r="A97">
+        <v>431</v>
+      </c>
       <c r="B97" s="6" t="s">
         <v>54</v>
       </c>
@@ -3509,7 +3475,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="20.25" customHeight="1">
+    <row r="98" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A98">
+        <v>432</v>
+      </c>
       <c r="B98" s="6" t="s">
         <v>54</v>
       </c>
@@ -3520,408 +3489,532 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="23.25" customHeight="1">
+    <row r="99" spans="1:5" ht="23.25" customHeight="1">
       <c r="C99" s="11"/>
     </row>
-    <row r="100" spans="2:4" ht="18" customHeight="1">
+    <row r="100" spans="1:5" ht="18" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="2:4" ht="21">
-      <c r="B101" s="6" t="s">
+    <row r="101" spans="1:5" ht="21">
+      <c r="A101">
+        <v>178</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" ht="21">
-      <c r="B102" s="6" t="s">
+      <c r="D101" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="21">
+      <c r="A102">
+        <v>179</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" ht="21">
-      <c r="B103" s="6" t="s">
+      <c r="D102" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="21">
+      <c r="A103">
+        <v>180</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="21">
-      <c r="B104" s="6" t="s">
+      <c r="D103" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="21">
+      <c r="A104">
+        <v>181</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="21">
-      <c r="B105" s="6" t="s">
+      <c r="D104" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="21">
+      <c r="A105">
+        <v>182</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" ht="21">
-      <c r="B106" s="6" t="s">
+      <c r="D105" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="21">
+      <c r="A106">
+        <v>183</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" ht="21">
-      <c r="B107" s="6" t="s">
+      <c r="D106" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="21">
+      <c r="A107">
+        <v>184</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" ht="21">
-      <c r="B108" s="6" t="s">
+      <c r="D107" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="21">
+      <c r="A108">
+        <v>185</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" ht="21">
-      <c r="B109" s="6" t="s">
+      <c r="D108" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="21">
+      <c r="A109">
+        <v>186</v>
+      </c>
+      <c r="B109" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" ht="21">
-      <c r="B110" s="6" t="s">
+      <c r="D109" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E109" s="37"/>
+    </row>
+    <row r="110" spans="1:5" ht="21">
+      <c r="A110">
+        <v>187</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" ht="21">
-      <c r="B111" s="6" t="s">
+      <c r="D110" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="21">
+      <c r="A111">
+        <v>188</v>
+      </c>
+      <c r="B111" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="21">
-      <c r="B112" s="6" t="s">
+      <c r="D111" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="21">
+      <c r="A112">
+        <v>189</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="21">
-      <c r="B113" s="6" t="s">
+      <c r="D112" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="21">
+      <c r="A113">
+        <v>190</v>
+      </c>
+      <c r="B113" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="21">
-      <c r="B114" s="6" t="s">
+      <c r="D113" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="21">
+      <c r="A114">
+        <v>191</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="21">
-      <c r="B115" s="6" t="s">
+      <c r="D114" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="21">
+      <c r="A115">
+        <v>192</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" ht="21">
-      <c r="B116" s="6" t="s">
+      <c r="D115" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="21">
+      <c r="A116">
+        <v>193</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" ht="21">
-      <c r="B117" s="6" t="s">
+      <c r="D116" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="21">
+      <c r="A117">
+        <v>194</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" ht="21">
-      <c r="B118" s="6" t="s">
+      <c r="D117" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="21">
+      <c r="A118">
+        <v>195</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" ht="21">
-      <c r="B119" s="6" t="s">
+      <c r="D118" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="21">
+      <c r="A119">
+        <v>196</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" ht="21">
-      <c r="B120" s="6" t="s">
+      <c r="D119" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="21">
+      <c r="A120">
+        <v>197</v>
+      </c>
+      <c r="B120" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" ht="21">
-      <c r="B121" s="6" t="s">
+      <c r="D120" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="21">
+      <c r="A121">
+        <v>198</v>
+      </c>
+      <c r="B121" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" ht="21">
-      <c r="B122" s="6" t="s">
+      <c r="D121" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="21">
+      <c r="A122">
+        <v>199</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D122" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" ht="21">
-      <c r="B123" s="6" t="s">
+      <c r="D122" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="21">
+      <c r="A123">
+        <v>200</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" ht="21">
-      <c r="B124" s="6" t="s">
+      <c r="D123" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E123" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="21">
+      <c r="A124">
+        <v>201</v>
+      </c>
+      <c r="B124" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" ht="21">
-      <c r="B125" s="6" t="s">
+      <c r="D124" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="21">
+      <c r="A125">
+        <v>202</v>
+      </c>
+      <c r="B125" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" ht="21">
-      <c r="B126" s="6" t="s">
+      <c r="D125" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="21">
+      <c r="A126">
+        <v>203</v>
+      </c>
+      <c r="B126" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" ht="21">
-      <c r="B127" s="6" t="s">
+      <c r="D126" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="21">
+      <c r="A127">
+        <v>204</v>
+      </c>
+      <c r="B127" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" ht="21">
-      <c r="B128" s="6" t="s">
+      <c r="D127" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="21">
+      <c r="A128">
+        <v>205</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D128" s="9" t="s">
-        <v>5</v>
+      <c r="D128" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="21">
-      <c r="B129" s="6" t="s">
+      <c r="A129">
+        <v>206</v>
+      </c>
+      <c r="B129" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>5</v>
+      <c r="D129" s="29" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="21">
-      <c r="B130" s="6" t="s">
+      <c r="A130">
+        <v>207</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>5</v>
+      <c r="D130" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E130" s="37" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="21">
-      <c r="B131" s="6" t="s">
+      <c r="A131">
+        <v>208</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>5</v>
+      <c r="D131" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="21">
-      <c r="B132" s="6" t="s">
+      <c r="A132">
+        <v>209</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>5</v>
+      <c r="D132" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="21">
-      <c r="B133" s="6" t="s">
+      <c r="A133">
+        <v>210</v>
+      </c>
+      <c r="B133" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>5</v>
+      <c r="D133" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E133" s="37" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="21">
-      <c r="B134" s="6" t="s">
+      <c r="A134">
+        <v>211</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>5</v>
+      <c r="D134" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="21">
-      <c r="B135" s="6" t="s">
+      <c r="A135">
+        <v>212</v>
+      </c>
+      <c r="B135" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>5</v>
+      <c r="D135" s="29" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="21">
-      <c r="B136" s="6" t="s">
+      <c r="A136">
+        <v>213</v>
+      </c>
+      <c r="B136" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>5</v>
+      <c r="D136" s="29" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="21">
@@ -3935,14 +4028,11 @@
       <c r="B139" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D139" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E139" t="s">
-        <v>485</v>
+      <c r="D139" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="21">
@@ -3952,14 +4042,11 @@
       <c r="B140" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E140" t="s">
-        <v>485</v>
+      <c r="D140" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="21">
@@ -3969,14 +4056,11 @@
       <c r="B141" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E141" s="17" t="s">
-        <v>484</v>
+      <c r="D141" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="21">
@@ -3986,14 +4070,11 @@
       <c r="B142" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D142" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>484</v>
+      <c r="D142" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21">
@@ -4003,14 +4084,11 @@
       <c r="B143" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E143" s="17" t="s">
-        <v>484</v>
+      <c r="D143" s="24" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="21">
@@ -4020,1560 +4098,1332 @@
       <c r="B144" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D144" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="21">
+      <c r="D144" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
       <c r="A145">
         <v>53</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E145" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="21">
+      <c r="D145" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
       <c r="A146">
         <v>54</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D146" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="21">
+      <c r="D146" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
       <c r="A147">
         <v>55</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D147" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E147" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="21">
+      <c r="D147" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148">
         <v>56</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D148" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="21">
+      <c r="D148" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
       <c r="A149">
         <v>57</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="21">
+      <c r="D149" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
       <c r="A150">
         <v>58</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C150" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D150" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="21">
+      <c r="D150" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
       <c r="A151">
         <v>59</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D151" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E151" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="21">
+      <c r="D151" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21">
       <c r="A152">
         <v>60</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D152" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="21">
+      <c r="D152" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21">
       <c r="A153">
         <v>61</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D153" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E153" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="21">
+      <c r="D153" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21">
       <c r="A154">
         <v>62</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D154" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E154" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="21">
+      <c r="D154" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21">
       <c r="A155">
         <v>63</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D155" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E155" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="21">
+      <c r="D155" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21">
       <c r="A156">
         <v>64</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E156" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="21">
+      <c r="D156" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21">
       <c r="A157">
         <v>65</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D157" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E157" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="21">
+      <c r="D157" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21">
       <c r="A158">
         <v>66</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C158" s="27" t="s">
+      <c r="C158" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="D158" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E158" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="21">
+      <c r="D158" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21">
       <c r="A159">
         <v>67</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D159" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E159" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="21">
+      <c r="D159" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21">
       <c r="A160">
         <v>68</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D160" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E160" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="21">
+      <c r="D160" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="21">
       <c r="A161">
         <v>69</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D161" s="30" t="s">
+      <c r="D161" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E161" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="E161" t="s">
-        <v>467</v>
-      </c>
-      <c r="F161" s="38" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="21">
+    </row>
+    <row r="162" spans="1:5" ht="21">
       <c r="A162">
         <v>70</v>
       </c>
       <c r="B162" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D162" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E162" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="21">
+      <c r="D162" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="21">
       <c r="A163">
         <v>71</v>
       </c>
       <c r="B163" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C163" s="27" t="s">
+      <c r="C163" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D163" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E163" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="21">
+      <c r="D163" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="21">
       <c r="A164">
         <v>72</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="32" t="s">
+      <c r="C164" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D164" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E164" t="s">
-        <v>467</v>
-      </c>
-      <c r="F164" s="38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="21">
+      <c r="D164" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="21">
       <c r="A165">
         <v>73</v>
       </c>
       <c r="B165" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C165" s="32" t="s">
+      <c r="C165" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="D165" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E165" t="s">
-        <v>467</v>
-      </c>
-      <c r="F165" s="38" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="21">
+      <c r="D165" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="21">
       <c r="A166">
         <v>74</v>
       </c>
       <c r="B166" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D166" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E166" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="21">
+      <c r="D166" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="21">
       <c r="A167">
         <v>75</v>
       </c>
       <c r="B167" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D167" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E167" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="21">
+      <c r="D167" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="21">
       <c r="A168">
         <v>76</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B168" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C168" s="26" t="s">
+      <c r="C168" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D168" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E168" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="21">
+      <c r="D168" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="21">
       <c r="A169">
         <v>77</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C169" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D169" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E169" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="21">
+      <c r="D169" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="21">
       <c r="A170">
         <v>78</v>
       </c>
       <c r="B170" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C170" s="27" t="s">
+      <c r="C170" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D170" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E170" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="21">
+      <c r="D170" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="21">
       <c r="A171">
         <v>79</v>
       </c>
       <c r="B171" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C171" s="27" t="s">
+      <c r="C171" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D171" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E171" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="21">
+      <c r="D171" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="21">
       <c r="A172">
         <v>80</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D172" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E172" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="21">
+      <c r="D172" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="21">
       <c r="A173">
         <v>81</v>
       </c>
       <c r="B173" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C173" s="27" t="s">
+      <c r="C173" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D173" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E173" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="21">
+      <c r="D173" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="21">
       <c r="A174">
         <v>82</v>
       </c>
       <c r="B174" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D174" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E174" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="21">
+      <c r="D174" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="21">
       <c r="C176" s="8"/>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="1:6" ht="21">
+    <row r="177" spans="1:5" ht="21">
       <c r="A177">
         <v>121</v>
       </c>
       <c r="B177" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D177" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E177" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="21">
+      <c r="D177" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="21">
       <c r="A178">
         <v>122</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C178" s="27" t="s">
+      <c r="C178" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="D178" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E178" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="21">
+      <c r="D178" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="21">
       <c r="A179">
         <v>123</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C179" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D179" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E179" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="21">
+      <c r="D179" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="21">
       <c r="A180">
         <v>124</v>
       </c>
       <c r="B180" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D180" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E180" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="21">
+      <c r="D180" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="21">
       <c r="A181">
         <v>125</v>
       </c>
       <c r="B181" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D181" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E181" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="21">
+      <c r="D181" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="21">
       <c r="A182">
         <v>126</v>
       </c>
       <c r="B182" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C182" s="27" t="s">
+      <c r="C182" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D182" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E182" t="s">
-        <v>467</v>
-      </c>
-      <c r="F182" s="38" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="21">
+      <c r="D182" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E182" s="37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="21">
       <c r="A183">
         <v>127</v>
       </c>
       <c r="B183" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C183" s="27" t="s">
+      <c r="C183" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D183" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E183" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="21">
+      <c r="D183" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="21">
       <c r="A184">
         <v>128</v>
       </c>
       <c r="B184" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C184" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D184" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E184" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="21">
+      <c r="D184" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="21">
       <c r="A185">
         <v>129</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C185" s="27" t="s">
+      <c r="C185" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D185" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E185" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="21">
+      <c r="D185" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="21">
       <c r="A186">
         <v>130</v>
       </c>
       <c r="B186" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C186" s="27" t="s">
+      <c r="C186" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D186" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E186" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="21">
+      <c r="D186" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="21">
       <c r="A187">
         <v>131</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="C187" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D187" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E187" t="s">
-        <v>467</v>
-      </c>
-      <c r="F187" s="38" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="21">
+      <c r="D187" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E187" s="37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="21">
       <c r="A188">
         <v>132</v>
       </c>
       <c r="B188" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C188" s="27" t="s">
+      <c r="C188" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D188" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E188" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="21">
+      <c r="D188" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="21">
       <c r="A189">
         <v>133</v>
       </c>
       <c r="B189" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D189" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E189" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="21">
+      <c r="D189" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="21">
       <c r="A190">
         <v>134</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D190" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E190" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="21">
+      <c r="D190" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="21">
       <c r="A191">
         <v>135</v>
       </c>
       <c r="B191" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D191" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E191" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="21">
+      <c r="D191" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="21">
       <c r="A192">
         <v>136</v>
       </c>
       <c r="B192" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C192" s="27" t="s">
+      <c r="C192" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D192" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E192" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="21">
+      <c r="D192" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21">
       <c r="A193">
         <v>137</v>
       </c>
       <c r="B193" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D193" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E193" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="21">
+      <c r="D193" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21">
       <c r="A194">
         <v>138</v>
       </c>
       <c r="B194" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C194" s="27" t="s">
+      <c r="C194" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D194" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E194" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="21">
+      <c r="D194" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
       <c r="A195">
         <v>139</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D195" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E195" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="21">
+      <c r="D195" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21">
       <c r="A196">
         <v>140</v>
       </c>
       <c r="B196" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D196" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E196" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="21">
+      <c r="D196" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21">
       <c r="A197">
         <v>141</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="C197" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D197" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E197" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="21">
+      <c r="D197" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
       <c r="A198">
         <v>142</v>
       </c>
       <c r="B198" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D198" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E198" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="21">
+      <c r="D198" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
       <c r="A199">
         <v>143</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D199" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E199" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="21">
+      <c r="D199" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
       <c r="A200">
         <v>144</v>
       </c>
       <c r="B200" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D200" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E200" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="21">
+      <c r="D200" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21">
       <c r="A201">
         <v>145</v>
       </c>
       <c r="B201" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="D201" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E201" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="21">
+      <c r="D201" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
       <c r="A202">
         <v>146</v>
       </c>
       <c r="B202" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D202" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E202" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="21">
+      <c r="D202" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21">
       <c r="A203">
         <v>147</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C203" s="27" t="s">
+      <c r="C203" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D203" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E203" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="21">
+      <c r="D203" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="21">
       <c r="A204">
         <v>148</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C204" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D204" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E204" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="21">
+      <c r="D204" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="21">
       <c r="A205">
         <v>149</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D205" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E205" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="21">
+      <c r="D205" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="21">
       <c r="A206">
         <v>150</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C206" s="27" t="s">
+      <c r="C206" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D206" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E206" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="21">
+      <c r="D206" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21">
       <c r="A207">
         <v>151</v>
       </c>
       <c r="B207" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="C207" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D207" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E207" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="21">
+      <c r="D207" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21">
       <c r="A208">
         <v>152</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C208" s="27" t="s">
+      <c r="C208" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D208" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E208" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="21">
+      <c r="D208" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="21">
       <c r="A209">
         <v>153</v>
       </c>
       <c r="B209" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C209" s="27" t="s">
+      <c r="C209" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D209" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E209" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="21">
+      <c r="D209" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="21">
       <c r="A210">
         <v>154</v>
       </c>
       <c r="B210" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C210" s="27" t="s">
+      <c r="C210" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D210" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E210" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="21">
+      <c r="D210" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="21">
       <c r="A211">
         <v>155</v>
       </c>
       <c r="B211" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C211" s="27" t="s">
+      <c r="C211" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D211" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E211" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="21">
+      <c r="D211" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="21">
       <c r="B212" s="6"/>
       <c r="C212" s="8"/>
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="1:6" ht="21">
+    <row r="213" spans="1:5" ht="21">
       <c r="B213" s="6"/>
       <c r="C213" s="8"/>
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="1:6" ht="21">
+    <row r="214" spans="1:5" ht="21">
       <c r="A214">
         <v>156</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="27" t="s">
+      <c r="C214" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="D214" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E214" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="21">
+      <c r="D214" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="21">
       <c r="A215">
         <v>157</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C215" s="27" t="s">
+      <c r="C215" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="D215" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E215" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="21">
+      <c r="D215" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="21">
       <c r="A216">
         <v>158</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C216" s="27" t="s">
+      <c r="C216" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D216" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E216" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="21">
+      <c r="D216" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="21">
       <c r="A217">
         <v>159</v>
       </c>
       <c r="B217" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C217" s="27" t="s">
+      <c r="C217" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D217" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E217" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="21">
+      <c r="D217" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="21">
       <c r="A218">
         <v>160</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C218" s="27" t="s">
+      <c r="C218" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D218" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E218" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="21">
+      <c r="D218" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="21">
       <c r="A219">
         <v>161</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C219" s="27" t="s">
+      <c r="C219" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D219" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E219" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="21">
+      <c r="D219" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="21">
       <c r="A220">
         <v>162</v>
       </c>
       <c r="B220" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C220" s="33" t="s">
+      <c r="C220" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D220" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E220" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="21">
+      <c r="D220" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="21">
       <c r="A221">
         <v>163</v>
       </c>
       <c r="B221" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C221" s="27" t="s">
+      <c r="C221" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D221" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E221" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="21">
+      <c r="D221" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="21">
       <c r="A222">
         <v>164</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C222" s="27" t="s">
+      <c r="C222" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D222" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E222" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="21">
+      <c r="D222" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="21">
       <c r="A223">
         <v>165</v>
       </c>
       <c r="B223" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C223" s="27" t="s">
+      <c r="C223" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="D223" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E223" t="s">
-        <v>467</v>
-      </c>
-      <c r="F223" s="38" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="21">
+      <c r="D223" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E223" s="37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="21">
       <c r="A224">
         <v>166</v>
       </c>
       <c r="B224" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C224" s="27" t="s">
+      <c r="C224" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D224" s="25" t="s">
-        <v>467</v>
+      <c r="D224" s="24" t="s">
+        <v>466</v>
       </c>
       <c r="E224" t="s">
-        <v>467</v>
-      </c>
-      <c r="F224" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="21">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="21">
       <c r="A225">
         <v>167</v>
       </c>
       <c r="B225" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C225" s="27" t="s">
+      <c r="C225" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D225" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E225" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="21">
+      <c r="D225" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="21">
       <c r="A226">
         <v>168</v>
       </c>
       <c r="B226" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C226" s="27" t="s">
+      <c r="C226" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D226" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E226" t="s">
-        <v>467</v>
-      </c>
-      <c r="F226" s="38" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="21">
+      <c r="D226" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E226" s="37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="21">
       <c r="A227">
         <v>169</v>
       </c>
       <c r="B227" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C227" s="27" t="s">
+      <c r="C227" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D227" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E227" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="21">
+      <c r="D227" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="21">
       <c r="A228">
         <v>170</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C228" s="27" t="s">
+      <c r="C228" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D228" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E228" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="21">
+      <c r="D228" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="21">
       <c r="A229">
         <v>171</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C229" s="27" t="s">
+      <c r="C229" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D229" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E229" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="21">
+      <c r="D229" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="21">
       <c r="A230">
         <v>172</v>
       </c>
       <c r="B230" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C230" s="27" t="s">
+      <c r="C230" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="D230" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E230" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="21">
+      <c r="D230" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="21">
       <c r="A231">
         <v>173</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D231" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="21">
+      <c r="D231" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E231" s="37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="21">
       <c r="A232">
         <v>174</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D232" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="21">
+      <c r="D232" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="21">
       <c r="A233">
         <v>175</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D233" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="21">
+      <c r="D233" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="21">
       <c r="A234">
         <v>176</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D234" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="21">
+      <c r="D234" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="21">
       <c r="A235">
         <v>177</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="D235" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="21">
+      <c r="D235" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="21">
       <c r="C236" s="8"/>
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="1:6" ht="21">
+    <row r="237" spans="1:5" ht="21">
       <c r="C237" s="8"/>
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="1:6" ht="21">
-      <c r="B238" s="6" t="s">
+    <row r="238" spans="1:5" ht="21">
+      <c r="A238">
+        <v>214</v>
+      </c>
+      <c r="B238" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D238" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="21">
-      <c r="B239" s="6" t="s">
+      <c r="D238" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E238" s="37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="21">
+      <c r="A239">
+        <v>215</v>
+      </c>
+      <c r="B239" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D239" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="21">
-      <c r="B240" s="6" t="s">
+      <c r="D239" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="21">
+      <c r="A240">
+        <v>216</v>
+      </c>
+      <c r="B240" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D240" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="2:4" ht="21">
+      <c r="D240" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E240" s="37" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="21">
+      <c r="A241">
+        <v>217</v>
+      </c>
       <c r="B241" s="6" t="s">
         <v>231</v>
       </c>
@@ -5584,7 +5434,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="21">
+    <row r="242" spans="1:4" ht="21">
+      <c r="A242">
+        <v>218</v>
+      </c>
       <c r="B242" s="6" t="s">
         <v>231</v>
       </c>
@@ -5595,7 +5448,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="21">
+    <row r="243" spans="1:4" ht="21">
+      <c r="A243">
+        <v>219</v>
+      </c>
       <c r="B243" s="6" t="s">
         <v>231</v>
       </c>
@@ -5606,7 +5462,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="21">
+    <row r="244" spans="1:4" ht="21">
+      <c r="A244">
+        <v>220</v>
+      </c>
       <c r="B244" s="6" t="s">
         <v>231</v>
       </c>
@@ -5617,7 +5476,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="21">
+    <row r="245" spans="1:4" ht="21">
+      <c r="A245">
+        <v>221</v>
+      </c>
       <c r="B245" s="6" t="s">
         <v>231</v>
       </c>
@@ -5628,7 +5490,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="21">
+    <row r="246" spans="1:4" ht="21">
+      <c r="A246">
+        <v>222</v>
+      </c>
       <c r="B246" s="6" t="s">
         <v>231</v>
       </c>
@@ -5639,7 +5504,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="21">
+    <row r="247" spans="1:4" ht="21">
+      <c r="A247">
+        <v>223</v>
+      </c>
       <c r="B247" s="6" t="s">
         <v>231</v>
       </c>
@@ -5650,7 +5518,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="21">
+    <row r="248" spans="1:4" ht="21">
+      <c r="A248">
+        <v>224</v>
+      </c>
       <c r="B248" s="6" t="s">
         <v>231</v>
       </c>
@@ -5661,7 +5532,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="21">
+    <row r="249" spans="1:4" ht="21">
+      <c r="A249">
+        <v>225</v>
+      </c>
       <c r="B249" s="6" t="s">
         <v>231</v>
       </c>
@@ -5672,7 +5546,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="21">
+    <row r="250" spans="1:4" ht="21">
+      <c r="A250">
+        <v>226</v>
+      </c>
       <c r="B250" s="6" t="s">
         <v>231</v>
       </c>
@@ -5683,7 +5560,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="21">
+    <row r="251" spans="1:4" ht="21">
+      <c r="A251">
+        <v>227</v>
+      </c>
       <c r="B251" s="6" t="s">
         <v>231</v>
       </c>
@@ -5694,7 +5574,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="21">
+    <row r="252" spans="1:4" ht="21">
+      <c r="A252">
+        <v>228</v>
+      </c>
       <c r="B252" s="6" t="s">
         <v>231</v>
       </c>
@@ -5705,7 +5588,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="21">
+    <row r="253" spans="1:4" ht="21">
+      <c r="A253">
+        <v>229</v>
+      </c>
       <c r="B253" s="6" t="s">
         <v>231</v>
       </c>
@@ -5716,7 +5602,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="21">
+    <row r="254" spans="1:4" ht="21">
+      <c r="A254">
+        <v>230</v>
+      </c>
       <c r="B254" s="6" t="s">
         <v>231</v>
       </c>
@@ -5727,7 +5616,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="21">
+    <row r="255" spans="1:4" ht="21">
+      <c r="A255">
+        <v>231</v>
+      </c>
       <c r="B255" s="6" t="s">
         <v>231</v>
       </c>
@@ -5738,7 +5630,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="21">
+    <row r="256" spans="1:4" ht="21">
+      <c r="A256">
+        <v>232</v>
+      </c>
       <c r="B256" s="6" t="s">
         <v>231</v>
       </c>
@@ -5749,7 +5644,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="21">
+    <row r="257" spans="1:4" ht="21">
+      <c r="A257">
+        <v>233</v>
+      </c>
       <c r="B257" s="6" t="s">
         <v>231</v>
       </c>
@@ -5760,7 +5658,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="21">
+    <row r="258" spans="1:4" ht="21">
+      <c r="A258">
+        <v>234</v>
+      </c>
       <c r="B258" s="6" t="s">
         <v>231</v>
       </c>
@@ -5771,7 +5672,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="21">
+    <row r="259" spans="1:4" ht="21">
+      <c r="A259">
+        <v>235</v>
+      </c>
       <c r="B259" s="6" t="s">
         <v>231</v>
       </c>
@@ -5782,7 +5686,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="21">
+    <row r="260" spans="1:4" ht="21">
+      <c r="A260">
+        <v>236</v>
+      </c>
       <c r="B260" s="6" t="s">
         <v>231</v>
       </c>
@@ -5793,7 +5700,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="21">
+    <row r="261" spans="1:4" ht="21">
+      <c r="A261">
+        <v>237</v>
+      </c>
       <c r="B261" s="6" t="s">
         <v>231</v>
       </c>
@@ -5804,7 +5714,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="21">
+    <row r="262" spans="1:4" ht="21">
+      <c r="A262">
+        <v>238</v>
+      </c>
       <c r="B262" s="6" t="s">
         <v>231</v>
       </c>
@@ -5815,7 +5728,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="21">
+    <row r="263" spans="1:4" ht="21">
+      <c r="A263">
+        <v>239</v>
+      </c>
       <c r="B263" s="6" t="s">
         <v>231</v>
       </c>
@@ -5826,7 +5742,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="21">
+    <row r="264" spans="1:4" ht="21">
+      <c r="A264">
+        <v>240</v>
+      </c>
       <c r="B264" s="6" t="s">
         <v>231</v>
       </c>
@@ -5837,7 +5756,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="21">
+    <row r="265" spans="1:4" ht="21">
+      <c r="A265">
+        <v>241</v>
+      </c>
       <c r="B265" s="6" t="s">
         <v>231</v>
       </c>
@@ -5848,7 +5770,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="21">
+    <row r="266" spans="1:4" ht="21">
+      <c r="A266">
+        <v>242</v>
+      </c>
       <c r="B266" s="6" t="s">
         <v>231</v>
       </c>
@@ -5859,7 +5784,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="21">
+    <row r="267" spans="1:4" ht="21">
+      <c r="A267">
+        <v>243</v>
+      </c>
       <c r="B267" s="6" t="s">
         <v>231</v>
       </c>
@@ -5870,7 +5798,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="21">
+    <row r="268" spans="1:4" ht="21">
+      <c r="A268">
+        <v>244</v>
+      </c>
       <c r="B268" s="6" t="s">
         <v>231</v>
       </c>
@@ -5881,7 +5812,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="21">
+    <row r="269" spans="1:4" ht="21">
+      <c r="A269">
+        <v>245</v>
+      </c>
       <c r="B269" s="6" t="s">
         <v>231</v>
       </c>
@@ -5892,7 +5826,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="21">
+    <row r="270" spans="1:4" ht="21">
+      <c r="A270">
+        <v>246</v>
+      </c>
       <c r="B270" s="6" t="s">
         <v>231</v>
       </c>
@@ -5903,7 +5840,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="21">
+    <row r="271" spans="1:4" ht="21">
+      <c r="A271">
+        <v>247</v>
+      </c>
       <c r="B271" s="6" t="s">
         <v>231</v>
       </c>
@@ -5914,7 +5854,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="21">
+    <row r="272" spans="1:4" ht="21">
+      <c r="A272">
+        <v>248</v>
+      </c>
       <c r="B272" s="6" t="s">
         <v>231</v>
       </c>
@@ -5925,15 +5868,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="2:4" ht="21">
+    <row r="273" spans="1:4" ht="21">
       <c r="C273" s="8"/>
       <c r="D273" s="9"/>
     </row>
-    <row r="274" spans="2:4" ht="21">
+    <row r="274" spans="1:4" ht="21">
       <c r="C274" s="8"/>
       <c r="D274" s="9"/>
     </row>
-    <row r="275" spans="2:4" ht="21">
+    <row r="275" spans="1:4" ht="21">
+      <c r="A275">
+        <v>249</v>
+      </c>
       <c r="B275" s="6" t="s">
         <v>266</v>
       </c>
@@ -5944,7 +5890,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:4" ht="21">
+    <row r="276" spans="1:4" ht="21">
+      <c r="A276">
+        <v>250</v>
+      </c>
       <c r="B276" s="6" t="s">
         <v>266</v>
       </c>
@@ -5955,7 +5904,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="2:4" ht="21">
+    <row r="277" spans="1:4" ht="21">
+      <c r="A277">
+        <v>251</v>
+      </c>
       <c r="B277" s="6" t="s">
         <v>266</v>
       </c>
@@ -5966,7 +5918,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="2:4" ht="21">
+    <row r="278" spans="1:4" ht="21">
+      <c r="A278">
+        <v>252</v>
+      </c>
       <c r="B278" s="6" t="s">
         <v>266</v>
       </c>
@@ -5977,7 +5932,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="2:4" ht="21">
+    <row r="279" spans="1:4" ht="21">
+      <c r="A279">
+        <v>253</v>
+      </c>
       <c r="B279" s="6" t="s">
         <v>266</v>
       </c>
@@ -5988,7 +5946,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="2:4" ht="21">
+    <row r="280" spans="1:4" ht="21">
+      <c r="A280">
+        <v>254</v>
+      </c>
       <c r="B280" s="6" t="s">
         <v>266</v>
       </c>
@@ -5999,7 +5960,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="2:4" ht="21">
+    <row r="281" spans="1:4" ht="21">
+      <c r="A281">
+        <v>255</v>
+      </c>
       <c r="B281" s="6" t="s">
         <v>266</v>
       </c>
@@ -6010,7 +5974,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="2:4" ht="21">
+    <row r="282" spans="1:4" ht="21">
+      <c r="A282">
+        <v>256</v>
+      </c>
       <c r="B282" s="6" t="s">
         <v>266</v>
       </c>
@@ -6021,7 +5988,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:4" ht="21">
+    <row r="283" spans="1:4" ht="21">
+      <c r="A283">
+        <v>257</v>
+      </c>
       <c r="B283" s="6" t="s">
         <v>266</v>
       </c>
@@ -6032,7 +6002,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="2:4" ht="21">
+    <row r="284" spans="1:4" ht="21">
+      <c r="A284">
+        <v>258</v>
+      </c>
       <c r="B284" s="6" t="s">
         <v>266</v>
       </c>
@@ -6043,7 +6016,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="21">
+    <row r="285" spans="1:4" ht="21">
+      <c r="A285">
+        <v>259</v>
+      </c>
       <c r="B285" s="6" t="s">
         <v>266</v>
       </c>
@@ -6054,7 +6030,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="2:4" ht="21">
+    <row r="286" spans="1:4" ht="21">
+      <c r="A286">
+        <v>260</v>
+      </c>
       <c r="B286" s="6" t="s">
         <v>266</v>
       </c>
@@ -6065,7 +6044,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="2:4" ht="21">
+    <row r="287" spans="1:4" ht="21">
+      <c r="A287">
+        <v>261</v>
+      </c>
       <c r="B287" s="6" t="s">
         <v>266</v>
       </c>
@@ -6076,7 +6058,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="2:4" ht="21">
+    <row r="288" spans="1:4" ht="21">
+      <c r="A288">
+        <v>262</v>
+      </c>
       <c r="B288" s="6" t="s">
         <v>266</v>
       </c>
@@ -6087,7 +6072,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="21">
+    <row r="289" spans="1:5" ht="21">
+      <c r="A289">
+        <v>263</v>
+      </c>
       <c r="B289" s="6" t="s">
         <v>266</v>
       </c>
@@ -6098,7 +6086,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="21">
+    <row r="290" spans="1:5" ht="21">
+      <c r="A290">
+        <v>264</v>
+      </c>
       <c r="B290" s="6" t="s">
         <v>266</v>
       </c>
@@ -6109,7 +6100,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="21">
+    <row r="291" spans="1:5" ht="21">
+      <c r="A291">
+        <v>265</v>
+      </c>
       <c r="B291" s="6" t="s">
         <v>266</v>
       </c>
@@ -6120,7 +6114,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="21">
+    <row r="292" spans="1:5" ht="21">
+      <c r="A292">
+        <v>266</v>
+      </c>
       <c r="B292" s="6" t="s">
         <v>266</v>
       </c>
@@ -6131,7 +6128,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="21">
+    <row r="293" spans="1:5" ht="21">
+      <c r="A293">
+        <v>267</v>
+      </c>
       <c r="B293" s="6" t="s">
         <v>266</v>
       </c>
@@ -6142,695 +6142,584 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="21">
+    <row r="294" spans="1:5" ht="21">
       <c r="C294" s="8"/>
       <c r="D294" s="9"/>
     </row>
-    <row r="295" spans="1:6" ht="21">
+    <row r="295" spans="1:5" ht="21">
       <c r="C295" s="8"/>
       <c r="D295" s="9"/>
     </row>
-    <row r="296" spans="1:6" ht="21">
+    <row r="296" spans="1:5" ht="21">
       <c r="A296">
         <v>83</v>
       </c>
       <c r="B296" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="27" t="s">
+      <c r="C296" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D296" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E296" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="21">
+      <c r="D296" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="21">
       <c r="A297">
         <v>84</v>
       </c>
       <c r="B297" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C297" s="27" t="s">
+      <c r="C297" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D297" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E297" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" ht="21">
+      <c r="D297" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="21">
       <c r="A298">
         <v>85</v>
       </c>
       <c r="B298" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C298" s="27" t="s">
+      <c r="C298" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="D298" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E298" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="21">
+      <c r="D298" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="21">
       <c r="A299">
         <v>86</v>
       </c>
       <c r="B299" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C299" s="27" t="s">
+      <c r="C299" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D299" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E299" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="21">
+      <c r="D299" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="21">
       <c r="A300">
         <v>87</v>
       </c>
       <c r="B300" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C300" s="27" t="s">
+      <c r="C300" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D300" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E300" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="21">
+      <c r="D300" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="21">
       <c r="A301">
         <v>88</v>
       </c>
       <c r="B301" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C301" s="27" t="s">
+      <c r="C301" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D301" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E301" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="21">
+      <c r="D301" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="21">
       <c r="A302">
         <v>89</v>
       </c>
       <c r="B302" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="27" t="s">
+      <c r="C302" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D302" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E302" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="21">
+      <c r="D302" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="21">
       <c r="A303">
         <v>90</v>
       </c>
       <c r="B303" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C303" s="27" t="s">
+      <c r="C303" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D303" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E303" t="s">
-        <v>467</v>
-      </c>
-      <c r="F303" s="38" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="21">
+      <c r="D303" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E303" s="37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="21">
       <c r="A304">
         <v>91</v>
       </c>
       <c r="B304" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C304" s="27" t="s">
+      <c r="C304" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="D304" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E304" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" ht="21">
+      <c r="D304" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="21">
       <c r="A305">
         <v>92</v>
       </c>
       <c r="B305" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C305" s="27" t="s">
+      <c r="C305" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D305" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E305" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" ht="21">
+      <c r="D305" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="21">
       <c r="A306">
         <v>93</v>
       </c>
       <c r="B306" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C306" s="27" t="s">
+      <c r="C306" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="D306" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E306" t="s">
-        <v>467</v>
-      </c>
-      <c r="F306" s="38" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="21">
+      <c r="D306" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E306" s="37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="21">
       <c r="A307">
         <v>94</v>
       </c>
       <c r="B307" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C307" s="27" t="s">
+      <c r="C307" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="D307" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E307" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="21">
+      <c r="D307" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="21">
       <c r="A308">
         <v>95</v>
       </c>
       <c r="B308" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C308" s="27" t="s">
+      <c r="C308" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="D308" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E308" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="21">
+      <c r="D308" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="21">
       <c r="A309">
         <v>96</v>
       </c>
       <c r="B309" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D309" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E309" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="21">
+      <c r="D309" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="21">
       <c r="A310">
         <v>97</v>
       </c>
       <c r="B310" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C310" s="27" t="s">
+      <c r="C310" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="D310" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E310" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="21">
+      <c r="D310" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="21">
       <c r="A311">
         <v>98</v>
       </c>
       <c r="B311" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C311" s="27" t="s">
+      <c r="C311" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="D311" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E311" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" ht="21">
+      <c r="D311" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="21">
       <c r="A312">
         <v>99</v>
       </c>
       <c r="B312" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C312" s="27" t="s">
+      <c r="C312" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D312" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E312" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="21">
+      <c r="D312" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="21">
       <c r="A313">
         <v>100</v>
       </c>
       <c r="B313" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C313" s="27" t="s">
+      <c r="C313" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="D313" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E313" t="s">
-        <v>467</v>
-      </c>
-      <c r="F313" s="17"/>
-    </row>
-    <row r="314" spans="1:6" ht="21">
+      <c r="D313" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E313" s="17"/>
+    </row>
+    <row r="314" spans="1:5" ht="21">
       <c r="A314">
         <v>101</v>
       </c>
       <c r="B314" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C314" s="27" t="s">
+      <c r="C314" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D314" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E314" t="s">
-        <v>468</v>
-      </c>
-      <c r="F314" s="17"/>
-    </row>
-    <row r="315" spans="1:6" ht="21">
+      <c r="D314" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E314" s="17"/>
+    </row>
+    <row r="315" spans="1:5" ht="21">
       <c r="A315">
         <v>102</v>
       </c>
       <c r="B315" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C315" s="27" t="s">
+      <c r="C315" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="D315" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E315" t="s">
-        <v>468</v>
-      </c>
-      <c r="F315" s="17"/>
-    </row>
-    <row r="316" spans="1:6" ht="21">
+      <c r="D315" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E315" s="17"/>
+    </row>
+    <row r="316" spans="1:5" ht="21">
       <c r="A316">
         <v>103</v>
       </c>
       <c r="B316" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C316" s="27" t="s">
+      <c r="C316" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="D316" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E316" t="s">
-        <v>468</v>
-      </c>
-      <c r="F316" s="38" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" ht="21">
+      <c r="D316" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E316" s="37" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="21">
       <c r="A317">
         <v>104</v>
       </c>
       <c r="B317" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C317" s="27" t="s">
+      <c r="C317" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="D317" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E317" t="s">
-        <v>467</v>
-      </c>
-      <c r="F317" s="17"/>
-    </row>
-    <row r="318" spans="1:6" ht="21">
+      <c r="D317" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E317" s="17"/>
+    </row>
+    <row r="318" spans="1:5" ht="21">
       <c r="A318">
         <v>105</v>
       </c>
       <c r="B318" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C318" s="27" t="s">
+      <c r="C318" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D318" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E318" t="s">
-        <v>468</v>
-      </c>
-      <c r="F318" s="17"/>
-    </row>
-    <row r="319" spans="1:6" ht="21">
+      <c r="D318" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E318" s="17"/>
+    </row>
+    <row r="319" spans="1:5" ht="21">
       <c r="A319">
         <v>106</v>
       </c>
       <c r="B319" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C319" s="27" t="s">
+      <c r="C319" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="D319" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E319" t="s">
-        <v>467</v>
-      </c>
-      <c r="F319" s="17"/>
-    </row>
-    <row r="320" spans="1:6" ht="21">
+      <c r="D319" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E319" s="17"/>
+    </row>
+    <row r="320" spans="1:5" ht="21">
       <c r="A320">
         <v>107</v>
       </c>
       <c r="B320" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C320" s="27" t="s">
+      <c r="C320" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D320" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E320" t="s">
-        <v>467</v>
-      </c>
-      <c r="F320" s="17"/>
-    </row>
-    <row r="321" spans="1:6" ht="21">
+      <c r="D320" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E320" s="17"/>
+    </row>
+    <row r="321" spans="1:5" ht="21">
       <c r="A321">
         <v>108</v>
       </c>
       <c r="B321" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C321" s="27" t="s">
+      <c r="C321" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="D321" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E321" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="F321" s="17"/>
-    </row>
-    <row r="322" spans="1:6" ht="21">
+      <c r="D321" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E321" s="17"/>
+    </row>
+    <row r="322" spans="1:5" ht="21">
       <c r="A322">
         <v>109</v>
       </c>
       <c r="B322" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C322" s="27" t="s">
+      <c r="C322" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D322" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E322" t="s">
-        <v>468</v>
-      </c>
-      <c r="F322" s="38" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" ht="21">
+      <c r="D322" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E322" s="37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="21">
       <c r="A323">
         <v>110</v>
       </c>
       <c r="B323" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C323" s="27" t="s">
+      <c r="C323" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D323" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E323" t="s">
-        <v>468</v>
-      </c>
-      <c r="F323" s="17"/>
-    </row>
-    <row r="324" spans="1:6" ht="21">
+      <c r="D323" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E323" s="17"/>
+    </row>
+    <row r="324" spans="1:5" ht="21">
       <c r="A324">
         <v>111</v>
       </c>
       <c r="B324" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C324" s="27" t="s">
+      <c r="C324" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="D324" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E324" t="s">
-        <v>468</v>
-      </c>
-      <c r="F324" s="17"/>
-    </row>
-    <row r="325" spans="1:6" ht="21">
+      <c r="D324" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E324" s="17"/>
+    </row>
+    <row r="325" spans="1:5" ht="21">
       <c r="A325">
         <v>112</v>
       </c>
       <c r="B325" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C325" s="27" t="s">
+      <c r="C325" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D325" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E325" t="s">
-        <v>467</v>
-      </c>
-      <c r="F325" s="35"/>
-    </row>
-    <row r="326" spans="1:6" ht="21">
+      <c r="D325" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E325" s="34"/>
+    </row>
+    <row r="326" spans="1:5" ht="21">
       <c r="A326">
         <v>113</v>
       </c>
       <c r="B326" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C326" s="27" t="s">
+      <c r="C326" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D326" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E326" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" ht="21">
+      <c r="D326" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="21">
       <c r="A327">
         <v>114</v>
       </c>
       <c r="B327" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C327" s="27" t="s">
+      <c r="C327" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D327" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E327" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" ht="21">
+      <c r="D327" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="21">
       <c r="A328">
         <v>115</v>
       </c>
       <c r="B328" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C328" s="27" t="s">
+      <c r="C328" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="D328" s="25" t="s">
-        <v>467</v>
+      <c r="D328" s="24" t="s">
+        <v>466</v>
       </c>
       <c r="E328" t="s">
-        <v>467</v>
-      </c>
-      <c r="F328" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" ht="21">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="21">
       <c r="A329">
         <v>116</v>
       </c>
       <c r="B329" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C329" s="27" t="s">
+      <c r="C329" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="D329" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E329" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="21">
+      <c r="D329" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="21">
       <c r="A330">
         <v>117</v>
       </c>
       <c r="B330" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C330" s="27" t="s">
+      <c r="C330" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D330" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E330" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="21">
+      <c r="D330" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="21">
       <c r="A331">
         <v>118</v>
       </c>
-      <c r="B331" s="23" t="s">
+      <c r="B331" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C331" s="26" t="s">
+      <c r="C331" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="D331" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E331" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="21">
+      <c r="D331" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="21">
       <c r="A332">
         <v>119</v>
       </c>
       <c r="B332" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C332" s="27" t="s">
+      <c r="C332" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D332" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E332" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="21">
+      <c r="D332" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="21">
       <c r="A333">
         <v>120</v>
       </c>
       <c r="B333" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C333" s="27" t="s">
+      <c r="C333" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="D333" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="E333" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" ht="21">
+      <c r="D333" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="21">
       <c r="C334" s="8"/>
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="1:6" ht="21">
+    <row r="335" spans="1:5" ht="21">
       <c r="C335" s="8"/>
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="1:6" ht="21">
+    <row r="336" spans="1:5" ht="21">
+      <c r="A336">
+        <v>268</v>
+      </c>
       <c r="B336" s="6" t="s">
         <v>325</v>
       </c>
@@ -6841,7 +6730,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="21">
+    <row r="337" spans="1:4" ht="21">
+      <c r="A337">
+        <v>269</v>
+      </c>
       <c r="B337" s="6" t="s">
         <v>325</v>
       </c>
@@ -6852,7 +6744,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="21">
+    <row r="338" spans="1:4" ht="21">
+      <c r="A338">
+        <v>270</v>
+      </c>
       <c r="B338" s="6" t="s">
         <v>325</v>
       </c>
@@ -6863,7 +6758,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="2:4" ht="21">
+    <row r="339" spans="1:4" ht="21">
+      <c r="A339">
+        <v>271</v>
+      </c>
       <c r="B339" s="6" t="s">
         <v>325</v>
       </c>
@@ -6874,7 +6772,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="21">
+    <row r="340" spans="1:4" ht="21">
+      <c r="A340">
+        <v>272</v>
+      </c>
       <c r="B340" s="6" t="s">
         <v>325</v>
       </c>
@@ -6885,7 +6786,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="21">
+    <row r="341" spans="1:4" ht="21">
+      <c r="A341">
+        <v>273</v>
+      </c>
       <c r="B341" s="6" t="s">
         <v>325</v>
       </c>
@@ -6896,7 +6800,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="21">
+    <row r="342" spans="1:4" ht="21">
+      <c r="A342">
+        <v>274</v>
+      </c>
       <c r="B342" s="6" t="s">
         <v>325</v>
       </c>
@@ -6907,7 +6814,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="2:4" ht="21">
+    <row r="343" spans="1:4" ht="21">
+      <c r="A343">
+        <v>275</v>
+      </c>
       <c r="B343" s="6" t="s">
         <v>325</v>
       </c>
@@ -6918,7 +6828,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="21">
+    <row r="344" spans="1:4" ht="21">
+      <c r="A344">
+        <v>276</v>
+      </c>
       <c r="B344" s="6" t="s">
         <v>325</v>
       </c>
@@ -6929,7 +6842,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="21">
+    <row r="345" spans="1:4" ht="21">
+      <c r="A345">
+        <v>277</v>
+      </c>
       <c r="B345" s="6" t="s">
         <v>325</v>
       </c>
@@ -6940,7 +6856,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="21">
+    <row r="346" spans="1:4" ht="21">
+      <c r="A346">
+        <v>278</v>
+      </c>
       <c r="B346" s="6" t="s">
         <v>325</v>
       </c>
@@ -6951,7 +6870,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="21">
+    <row r="347" spans="1:4" ht="21">
+      <c r="A347">
+        <v>279</v>
+      </c>
       <c r="B347" s="6" t="s">
         <v>325</v>
       </c>
@@ -6962,7 +6884,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="21">
+    <row r="348" spans="1:4" ht="21">
+      <c r="A348">
+        <v>280</v>
+      </c>
       <c r="B348" s="6" t="s">
         <v>325</v>
       </c>
@@ -6973,7 +6898,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="2:4" ht="21">
+    <row r="349" spans="1:4" ht="21">
+      <c r="A349">
+        <v>281</v>
+      </c>
       <c r="B349" s="6" t="s">
         <v>325</v>
       </c>
@@ -6984,7 +6912,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:4" ht="21">
+    <row r="350" spans="1:4" ht="21">
+      <c r="A350">
+        <v>282</v>
+      </c>
       <c r="B350" s="6" t="s">
         <v>325</v>
       </c>
@@ -6995,7 +6926,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="21">
+    <row r="351" spans="1:4" ht="21">
+      <c r="A351">
+        <v>283</v>
+      </c>
       <c r="B351" s="6" t="s">
         <v>325</v>
       </c>
@@ -7006,7 +6940,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="21">
+    <row r="352" spans="1:4" ht="21">
+      <c r="A352">
+        <v>284</v>
+      </c>
       <c r="B352" s="6" t="s">
         <v>325</v>
       </c>
@@ -7017,7 +6954,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="21">
+    <row r="353" spans="1:5" ht="21">
+      <c r="A353">
+        <v>285</v>
+      </c>
       <c r="B353" s="6" t="s">
         <v>325</v>
       </c>
@@ -7028,147 +6968,189 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="21">
+    <row r="354" spans="1:5" ht="21">
       <c r="C354" s="8"/>
       <c r="D354" s="9"/>
     </row>
-    <row r="355" spans="2:4" ht="21">
+    <row r="355" spans="1:5" ht="21">
       <c r="C355" s="8"/>
       <c r="D355" s="9"/>
     </row>
-    <row r="356" spans="2:4" ht="21">
-      <c r="B356" s="6" t="s">
+    <row r="356" spans="1:5" ht="21">
+      <c r="A356">
+        <v>286</v>
+      </c>
+      <c r="B356" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="C356" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="D356" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4" ht="21">
-      <c r="B357" s="6" t="s">
+      <c r="D356" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E356" s="37" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="21">
+      <c r="A357">
+        <v>287</v>
+      </c>
+      <c r="B357" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="C357" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="D357" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4" ht="21">
-      <c r="B358" s="6" t="s">
+      <c r="D357" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="21">
+      <c r="A358">
+        <v>288</v>
+      </c>
+      <c r="B358" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C358" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="D358" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="359" spans="2:4" ht="21">
-      <c r="B359" s="6" t="s">
+      <c r="D358" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="21">
+      <c r="A359">
+        <v>289</v>
+      </c>
+      <c r="B359" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C359" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="D359" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="360" spans="2:4" ht="21">
-      <c r="B360" s="6" t="s">
+      <c r="D359" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="21">
+      <c r="A360">
+        <v>290</v>
+      </c>
+      <c r="B360" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="C360" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="D360" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" spans="2:4" ht="21">
-      <c r="B361" s="6" t="s">
+      <c r="D360" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="21">
+      <c r="A361">
+        <v>291</v>
+      </c>
+      <c r="B361" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="C361" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="D361" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362" spans="2:4" ht="21">
-      <c r="B362" s="6" t="s">
+      <c r="D361" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="21">
+      <c r="A362">
+        <v>292</v>
+      </c>
+      <c r="B362" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C362" s="7" t="s">
+      <c r="C362" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="D362" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4" ht="21">
-      <c r="B363" s="6" t="s">
+      <c r="D362" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="21">
+      <c r="A363">
+        <v>293</v>
+      </c>
+      <c r="B363" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C363" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="D363" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4" ht="21">
-      <c r="B364" s="6" t="s">
+      <c r="D363" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="21">
+      <c r="A364">
+        <v>294</v>
+      </c>
+      <c r="B364" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C364" s="7" t="s">
+      <c r="C364" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="D364" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" spans="2:4" ht="21">
-      <c r="B365" s="6" t="s">
+      <c r="D364" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="21">
+      <c r="A365">
+        <v>295</v>
+      </c>
+      <c r="B365" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C365" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="D365" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="2:4" ht="21">
-      <c r="B366" s="6" t="s">
+      <c r="D365" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="21">
+      <c r="A366">
+        <v>296</v>
+      </c>
+      <c r="B366" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C366" s="7" t="s">
+      <c r="C366" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="D366" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="367" spans="2:4" ht="21">
-      <c r="B367" s="6" t="s">
+      <c r="D366" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="21">
+      <c r="A367">
+        <v>297</v>
+      </c>
+      <c r="B367" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C367" s="7" t="s">
+      <c r="C367" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="D367" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="368" spans="2:4" ht="21">
+      <c r="D367" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="21">
+      <c r="A368">
+        <v>298</v>
+      </c>
       <c r="B368" s="6" t="s">
         <v>344</v>
       </c>
@@ -7179,7 +7161,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="2:4" ht="21">
+    <row r="369" spans="1:4" ht="21">
+      <c r="A369">
+        <v>299</v>
+      </c>
       <c r="B369" s="6" t="s">
         <v>344</v>
       </c>
@@ -7190,7 +7175,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="21">
+    <row r="370" spans="1:4" ht="21">
+      <c r="A370">
+        <v>300</v>
+      </c>
       <c r="B370" s="6" t="s">
         <v>344</v>
       </c>
@@ -7201,7 +7189,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="2:4" ht="21">
+    <row r="371" spans="1:4" ht="21">
+      <c r="A371">
+        <v>301</v>
+      </c>
       <c r="B371" s="6" t="s">
         <v>344</v>
       </c>
@@ -7212,7 +7203,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:4" ht="21">
+    <row r="372" spans="1:4" ht="21">
+      <c r="A372">
+        <v>302</v>
+      </c>
       <c r="B372" s="6" t="s">
         <v>344</v>
       </c>
@@ -7223,7 +7217,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="2:4" ht="21">
+    <row r="373" spans="1:4" ht="21">
+      <c r="A373">
+        <v>303</v>
+      </c>
       <c r="B373" s="6" t="s">
         <v>344</v>
       </c>
@@ -7234,7 +7231,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="2:4" ht="21">
+    <row r="374" spans="1:4" ht="21">
+      <c r="A374">
+        <v>304</v>
+      </c>
       <c r="B374" s="6" t="s">
         <v>344</v>
       </c>
@@ -7245,7 +7245,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="2:4" ht="21">
+    <row r="375" spans="1:4" ht="21">
+      <c r="A375">
+        <v>305</v>
+      </c>
       <c r="B375" s="6" t="s">
         <v>344</v>
       </c>
@@ -7256,7 +7259,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:4" ht="21">
+    <row r="376" spans="1:4" ht="21">
+      <c r="A376">
+        <v>306</v>
+      </c>
       <c r="B376" s="6" t="s">
         <v>344</v>
       </c>
@@ -7267,7 +7273,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="2:4" ht="21">
+    <row r="377" spans="1:4" ht="21">
+      <c r="A377">
+        <v>307</v>
+      </c>
       <c r="B377" s="6" t="s">
         <v>344</v>
       </c>
@@ -7278,7 +7287,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="2:4" ht="21">
+    <row r="378" spans="1:4" ht="21">
+      <c r="A378">
+        <v>308</v>
+      </c>
       <c r="B378" s="6" t="s">
         <v>344</v>
       </c>
@@ -7289,7 +7301,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="21">
+    <row r="379" spans="1:4" ht="21">
+      <c r="A379">
+        <v>309</v>
+      </c>
       <c r="B379" s="6" t="s">
         <v>344</v>
       </c>
@@ -7300,7 +7315,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="2:4" ht="21">
+    <row r="380" spans="1:4" ht="21">
+      <c r="A380">
+        <v>310</v>
+      </c>
       <c r="B380" s="6" t="s">
         <v>344</v>
       </c>
@@ -7311,7 +7329,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="21">
+    <row r="381" spans="1:4" ht="21">
+      <c r="A381">
+        <v>311</v>
+      </c>
       <c r="B381" s="6" t="s">
         <v>344</v>
       </c>
@@ -7322,7 +7343,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="2:4" ht="21">
+    <row r="382" spans="1:4" ht="21">
+      <c r="A382">
+        <v>312</v>
+      </c>
       <c r="B382" s="6" t="s">
         <v>344</v>
       </c>
@@ -7333,7 +7357,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="2:4" ht="21">
+    <row r="383" spans="1:4" ht="21">
+      <c r="A383">
+        <v>313</v>
+      </c>
       <c r="B383" s="6" t="s">
         <v>344</v>
       </c>
@@ -7344,7 +7371,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="2:4" ht="21">
+    <row r="384" spans="1:4" ht="21">
+      <c r="A384">
+        <v>314</v>
+      </c>
       <c r="B384" s="6" t="s">
         <v>344</v>
       </c>
@@ -7355,7 +7385,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="2:4" ht="21">
+    <row r="385" spans="1:4" ht="21">
+      <c r="A385">
+        <v>315</v>
+      </c>
       <c r="B385" s="6" t="s">
         <v>344</v>
       </c>
@@ -7366,7 +7399,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="2:4" ht="21">
+    <row r="386" spans="1:4" ht="21">
+      <c r="A386">
+        <v>316</v>
+      </c>
       <c r="B386" s="6" t="s">
         <v>344</v>
       </c>
@@ -7377,7 +7413,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="2:4" ht="21">
+    <row r="387" spans="1:4" ht="21">
+      <c r="A387">
+        <v>317</v>
+      </c>
       <c r="B387" s="6" t="s">
         <v>344</v>
       </c>
@@ -7388,7 +7427,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="2:4" ht="21">
+    <row r="388" spans="1:4" ht="21">
+      <c r="A388">
+        <v>318</v>
+      </c>
       <c r="B388" s="6" t="s">
         <v>344</v>
       </c>
@@ -7399,7 +7441,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="2:4" ht="21">
+    <row r="389" spans="1:4" ht="21">
+      <c r="A389">
+        <v>319</v>
+      </c>
       <c r="B389" s="6" t="s">
         <v>344</v>
       </c>
@@ -7410,7 +7455,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="2:4" ht="21">
+    <row r="390" spans="1:4" ht="21">
+      <c r="A390">
+        <v>320</v>
+      </c>
       <c r="B390" s="6" t="s">
         <v>344</v>
       </c>
@@ -7421,7 +7469,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="2:4" ht="21">
+    <row r="391" spans="1:4" ht="21">
+      <c r="A391">
+        <v>321</v>
+      </c>
       <c r="B391" s="6" t="s">
         <v>344</v>
       </c>
@@ -7432,7 +7483,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="2:4" ht="21">
+    <row r="392" spans="1:4" ht="21">
+      <c r="A392">
+        <v>322</v>
+      </c>
       <c r="B392" s="6" t="s">
         <v>344</v>
       </c>
@@ -7443,7 +7497,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="2:4" ht="21">
+    <row r="393" spans="1:4" ht="21">
+      <c r="A393">
+        <v>323</v>
+      </c>
       <c r="B393" s="6" t="s">
         <v>344</v>
       </c>
@@ -7454,7 +7511,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="2:4" ht="21">
+    <row r="394" spans="1:4" ht="21">
+      <c r="A394">
+        <v>324</v>
+      </c>
       <c r="B394" s="6" t="s">
         <v>344</v>
       </c>
@@ -7465,7 +7525,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="2:4" ht="21">
+    <row r="395" spans="1:4" ht="21">
+      <c r="A395">
+        <v>325</v>
+      </c>
       <c r="B395" s="6" t="s">
         <v>344</v>
       </c>
@@ -7476,7 +7539,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="2:4" ht="21">
+    <row r="396" spans="1:4" ht="21">
+      <c r="A396">
+        <v>326</v>
+      </c>
       <c r="B396" s="6" t="s">
         <v>344</v>
       </c>
@@ -7487,7 +7553,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="2:4" ht="21">
+    <row r="397" spans="1:4" ht="21">
+      <c r="A397">
+        <v>327</v>
+      </c>
       <c r="B397" s="6" t="s">
         <v>344</v>
       </c>
@@ -7498,7 +7567,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="2:4" ht="21">
+    <row r="398" spans="1:4" ht="21">
+      <c r="A398">
+        <v>328</v>
+      </c>
       <c r="B398" s="6" t="s">
         <v>344</v>
       </c>
@@ -7509,7 +7581,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="2:4" ht="21">
+    <row r="399" spans="1:4" ht="21">
+      <c r="A399">
+        <v>329</v>
+      </c>
       <c r="B399" s="6" t="s">
         <v>344</v>
       </c>
@@ -7520,15 +7595,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="2:4" ht="21">
+    <row r="400" spans="1:4" ht="21">
       <c r="C400" s="8"/>
       <c r="D400" s="9"/>
     </row>
-    <row r="401" spans="2:4" ht="21">
+    <row r="401" spans="1:4" ht="21">
       <c r="C401" s="8"/>
       <c r="D401" s="9"/>
     </row>
-    <row r="402" spans="2:4" ht="21">
+    <row r="402" spans="1:4" ht="21">
+      <c r="A402">
+        <v>433</v>
+      </c>
       <c r="B402" s="6" t="s">
         <v>388</v>
       </c>
@@ -7539,7 +7617,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="21">
+    <row r="403" spans="1:4" ht="21">
+      <c r="A403">
+        <v>434</v>
+      </c>
       <c r="B403" s="6" t="s">
         <v>388</v>
       </c>
@@ -7550,7 +7631,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="21">
+    <row r="404" spans="1:4" ht="21">
+      <c r="A404">
+        <v>435</v>
+      </c>
       <c r="B404" s="6" t="s">
         <v>388</v>
       </c>
@@ -7561,7 +7645,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="2:4" ht="21">
+    <row r="405" spans="1:4" ht="21">
+      <c r="A405">
+        <v>436</v>
+      </c>
       <c r="B405" s="6" t="s">
         <v>388</v>
       </c>
@@ -7572,7 +7659,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="21">
+    <row r="406" spans="1:4" ht="21">
+      <c r="A406">
+        <v>437</v>
+      </c>
       <c r="B406" s="6" t="s">
         <v>388</v>
       </c>
@@ -7583,7 +7673,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="2:4" ht="21">
+    <row r="407" spans="1:4" ht="21">
+      <c r="A407">
+        <v>438</v>
+      </c>
       <c r="B407" s="6" t="s">
         <v>388</v>
       </c>
@@ -7594,15 +7687,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="2:4" ht="21">
+    <row r="408" spans="1:4" ht="21">
       <c r="C408" s="8"/>
       <c r="D408" s="9"/>
     </row>
-    <row r="409" spans="2:4" ht="21">
+    <row r="409" spans="1:4" ht="21">
       <c r="C409" s="8"/>
       <c r="D409" s="9"/>
     </row>
-    <row r="410" spans="2:4" ht="21">
+    <row r="410" spans="1:4" ht="21">
+      <c r="A410">
+        <v>330</v>
+      </c>
       <c r="B410" s="6" t="s">
         <v>394</v>
       </c>
@@ -7613,7 +7709,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="2:4" ht="21">
+    <row r="411" spans="1:4" ht="21">
+      <c r="A411">
+        <v>331</v>
+      </c>
       <c r="B411" s="6" t="s">
         <v>394</v>
       </c>
@@ -7624,7 +7723,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="2:4" ht="21">
+    <row r="412" spans="1:4" ht="21">
+      <c r="A412">
+        <v>332</v>
+      </c>
       <c r="B412" s="6" t="s">
         <v>394</v>
       </c>
@@ -7635,7 +7737,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="2:4" ht="21">
+    <row r="413" spans="1:4" ht="21">
+      <c r="A413">
+        <v>333</v>
+      </c>
       <c r="B413" s="6" t="s">
         <v>394</v>
       </c>
@@ -7646,7 +7751,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="2:4" ht="21">
+    <row r="414" spans="1:4" ht="21">
+      <c r="A414">
+        <v>334</v>
+      </c>
       <c r="B414" s="6" t="s">
         <v>394</v>
       </c>
@@ -7657,7 +7765,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="2:4" ht="21">
+    <row r="415" spans="1:4" ht="21">
+      <c r="A415">
+        <v>335</v>
+      </c>
       <c r="B415" s="6" t="s">
         <v>394</v>
       </c>
@@ -7668,7 +7779,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="2:4" ht="21">
+    <row r="416" spans="1:4" ht="21">
+      <c r="A416">
+        <v>336</v>
+      </c>
       <c r="B416" s="6" t="s">
         <v>394</v>
       </c>
@@ -7679,7 +7793,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="2:4" ht="21">
+    <row r="417" spans="1:4" ht="21">
+      <c r="A417">
+        <v>337</v>
+      </c>
       <c r="B417" s="6" t="s">
         <v>394</v>
       </c>
@@ -7690,7 +7807,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="2:4" ht="21">
+    <row r="418" spans="1:4" ht="21">
+      <c r="A418">
+        <v>338</v>
+      </c>
       <c r="B418" s="6" t="s">
         <v>394</v>
       </c>
@@ -7701,7 +7821,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="2:4" ht="21">
+    <row r="419" spans="1:4" ht="21">
+      <c r="A419">
+        <v>339</v>
+      </c>
       <c r="B419" s="6" t="s">
         <v>394</v>
       </c>
@@ -7712,7 +7835,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="2:4" ht="21">
+    <row r="420" spans="1:4" ht="21">
+      <c r="A420">
+        <v>340</v>
+      </c>
       <c r="B420" s="6" t="s">
         <v>394</v>
       </c>
@@ -7723,7 +7849,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="2:4" ht="21">
+    <row r="421" spans="1:4" ht="21">
+      <c r="A421">
+        <v>341</v>
+      </c>
       <c r="B421" s="6" t="s">
         <v>394</v>
       </c>
@@ -7734,7 +7863,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="2:4" ht="21">
+    <row r="422" spans="1:4" ht="21">
+      <c r="A422">
+        <v>342</v>
+      </c>
       <c r="B422" s="6" t="s">
         <v>394</v>
       </c>
@@ -7745,7 +7877,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="2:4" ht="21">
+    <row r="423" spans="1:4" ht="21">
+      <c r="A423">
+        <v>343</v>
+      </c>
       <c r="B423" s="6" t="s">
         <v>394</v>
       </c>
@@ -7756,7 +7891,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="2:4" ht="21">
+    <row r="424" spans="1:4" ht="21">
+      <c r="A424">
+        <v>344</v>
+      </c>
       <c r="B424" s="6" t="s">
         <v>394</v>
       </c>
@@ -7767,7 +7905,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="2:4" ht="21">
+    <row r="425" spans="1:4" ht="21">
+      <c r="A425">
+        <v>345</v>
+      </c>
       <c r="B425" s="6" t="s">
         <v>394</v>
       </c>
@@ -7778,7 +7919,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="2:4" ht="21">
+    <row r="426" spans="1:4" ht="21">
+      <c r="A426">
+        <v>346</v>
+      </c>
       <c r="B426" s="6" t="s">
         <v>394</v>
       </c>
@@ -7789,7 +7933,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="2:4" ht="21">
+    <row r="427" spans="1:4" ht="21">
+      <c r="A427">
+        <v>347</v>
+      </c>
       <c r="B427" s="6" t="s">
         <v>394</v>
       </c>
@@ -7800,7 +7947,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="2:4" ht="21">
+    <row r="428" spans="1:4" ht="21">
+      <c r="A428">
+        <v>348</v>
+      </c>
       <c r="B428" s="6" t="s">
         <v>394</v>
       </c>
@@ -7811,7 +7961,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="2:4" ht="21">
+    <row r="429" spans="1:4" ht="21">
+      <c r="A429">
+        <v>349</v>
+      </c>
       <c r="B429" s="6" t="s">
         <v>394</v>
       </c>
@@ -7822,7 +7975,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="2:4" ht="21">
+    <row r="430" spans="1:4" ht="21">
+      <c r="A430">
+        <v>350</v>
+      </c>
       <c r="B430" s="6" t="s">
         <v>394</v>
       </c>
@@ -7833,7 +7989,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="2:4" ht="21">
+    <row r="431" spans="1:4" ht="21">
+      <c r="A431">
+        <v>351</v>
+      </c>
       <c r="B431" s="6" t="s">
         <v>394</v>
       </c>
@@ -7844,7 +8003,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="2:4" ht="21">
+    <row r="432" spans="1:4" ht="21">
+      <c r="A432">
+        <v>352</v>
+      </c>
       <c r="B432" s="6" t="s">
         <v>394</v>
       </c>
@@ -7855,7 +8017,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="2:4" ht="21">
+    <row r="433" spans="1:4" ht="21">
+      <c r="A433">
+        <v>353</v>
+      </c>
       <c r="B433" s="6" t="s">
         <v>394</v>
       </c>
@@ -7866,7 +8031,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="2:4" ht="21">
+    <row r="434" spans="1:4" ht="21">
+      <c r="A434">
+        <v>354</v>
+      </c>
       <c r="B434" s="6" t="s">
         <v>394</v>
       </c>
@@ -7877,7 +8045,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="2:4" ht="21">
+    <row r="435" spans="1:4" ht="21">
+      <c r="A435">
+        <v>355</v>
+      </c>
       <c r="B435" s="6" t="s">
         <v>394</v>
       </c>
@@ -7888,7 +8059,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="2:4" ht="21">
+    <row r="436" spans="1:4" ht="21">
+      <c r="A436">
+        <v>356</v>
+      </c>
       <c r="B436" s="6" t="s">
         <v>394</v>
       </c>
@@ -7899,7 +8073,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="2:4" ht="21">
+    <row r="437" spans="1:4" ht="21">
+      <c r="A437">
+        <v>357</v>
+      </c>
       <c r="B437" s="6" t="s">
         <v>394</v>
       </c>
@@ -7910,7 +8087,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="2:4" ht="21">
+    <row r="438" spans="1:4" ht="21">
+      <c r="A438">
+        <v>358</v>
+      </c>
       <c r="B438" s="6" t="s">
         <v>394</v>
       </c>
@@ -7921,7 +8101,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="2:4" ht="21">
+    <row r="439" spans="1:4" ht="21">
+      <c r="A439">
+        <v>359</v>
+      </c>
       <c r="B439" s="6" t="s">
         <v>394</v>
       </c>
@@ -7932,7 +8115,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="2:4" ht="21">
+    <row r="440" spans="1:4" ht="21">
+      <c r="A440">
+        <v>360</v>
+      </c>
       <c r="B440" s="6" t="s">
         <v>394</v>
       </c>
@@ -7943,7 +8129,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="2:4" ht="21">
+    <row r="441" spans="1:4" ht="21">
+      <c r="A441">
+        <v>361</v>
+      </c>
       <c r="B441" s="6" t="s">
         <v>394</v>
       </c>
@@ -7954,7 +8143,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="2:4" ht="21">
+    <row r="442" spans="1:4" ht="21">
+      <c r="A442">
+        <v>362</v>
+      </c>
       <c r="B442" s="6" t="s">
         <v>394</v>
       </c>
@@ -7965,7 +8157,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="2:4" ht="21">
+    <row r="443" spans="1:4" ht="21">
+      <c r="A443">
+        <v>363</v>
+      </c>
       <c r="B443" s="6" t="s">
         <v>394</v>
       </c>
@@ -7976,7 +8171,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="2:4" ht="21">
+    <row r="444" spans="1:4" ht="21">
+      <c r="A444">
+        <v>364</v>
+      </c>
       <c r="B444" s="6" t="s">
         <v>394</v>
       </c>
@@ -7987,7 +8185,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="2:4" ht="21">
+    <row r="445" spans="1:4" ht="21">
+      <c r="A445">
+        <v>365</v>
+      </c>
       <c r="B445" s="6" t="s">
         <v>394</v>
       </c>
@@ -7998,7 +8199,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="2:4" ht="21">
+    <row r="446" spans="1:4" ht="21">
+      <c r="A446">
+        <v>366</v>
+      </c>
       <c r="B446" s="6" t="s">
         <v>394</v>
       </c>
@@ -8009,7 +8213,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="2:4" ht="21">
+    <row r="447" spans="1:4" ht="21">
+      <c r="A447">
+        <v>367</v>
+      </c>
       <c r="B447" s="6" t="s">
         <v>394</v>
       </c>
@@ -8020,7 +8227,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="2:4" ht="21">
+    <row r="448" spans="1:4" ht="21">
+      <c r="A448">
+        <v>368</v>
+      </c>
       <c r="B448" s="6" t="s">
         <v>394</v>
       </c>
@@ -8031,7 +8241,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="2:4" ht="21">
+    <row r="449" spans="1:4" ht="21">
+      <c r="A449">
+        <v>369</v>
+      </c>
       <c r="B449" s="6" t="s">
         <v>394</v>
       </c>
@@ -8042,7 +8255,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="2:4" ht="21">
+    <row r="450" spans="1:4" ht="21">
+      <c r="A450">
+        <v>370</v>
+      </c>
       <c r="B450" s="6" t="s">
         <v>394</v>
       </c>
@@ -8053,7 +8269,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="2:4" ht="21">
+    <row r="451" spans="1:4" ht="21">
+      <c r="A451">
+        <v>371</v>
+      </c>
       <c r="B451" s="6" t="s">
         <v>394</v>
       </c>
@@ -8064,7 +8283,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="2:4" ht="21">
+    <row r="452" spans="1:4" ht="21">
+      <c r="A452">
+        <v>372</v>
+      </c>
       <c r="B452" s="6" t="s">
         <v>394</v>
       </c>
@@ -8075,7 +8297,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="2:4" ht="21">
+    <row r="453" spans="1:4" ht="21">
+      <c r="A453">
+        <v>373</v>
+      </c>
       <c r="B453" s="6" t="s">
         <v>394</v>
       </c>
@@ -8086,7 +8311,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="2:4" ht="21">
+    <row r="454" spans="1:4" ht="21">
+      <c r="A454">
+        <v>374</v>
+      </c>
       <c r="B454" s="6" t="s">
         <v>394</v>
       </c>
@@ -8097,7 +8325,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="2:4" ht="21">
+    <row r="455" spans="1:4" ht="21">
+      <c r="A455">
+        <v>375</v>
+      </c>
       <c r="B455" s="6" t="s">
         <v>394</v>
       </c>
@@ -8108,7 +8339,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="2:4" ht="21">
+    <row r="456" spans="1:4" ht="21">
+      <c r="A456">
+        <v>376</v>
+      </c>
       <c r="B456" s="6" t="s">
         <v>394</v>
       </c>
@@ -8119,7 +8353,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="2:4" ht="21">
+    <row r="457" spans="1:4" ht="21">
+      <c r="A457">
+        <v>377</v>
+      </c>
       <c r="B457" s="6" t="s">
         <v>394</v>
       </c>
@@ -8130,7 +8367,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="2:4" ht="21">
+    <row r="458" spans="1:4" ht="21">
+      <c r="A458">
+        <v>378</v>
+      </c>
       <c r="B458" s="6" t="s">
         <v>394</v>
       </c>
@@ -8141,7 +8381,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="2:4" ht="21">
+    <row r="459" spans="1:4" ht="21">
+      <c r="A459">
+        <v>379</v>
+      </c>
       <c r="B459" s="6" t="s">
         <v>394</v>
       </c>
@@ -8152,7 +8395,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="2:4" ht="21">
+    <row r="460" spans="1:4" ht="21">
+      <c r="A460">
+        <v>380</v>
+      </c>
       <c r="B460" s="6" t="s">
         <v>394</v>
       </c>
@@ -8163,7 +8409,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="2:4" ht="21">
+    <row r="461" spans="1:4" ht="21">
+      <c r="A461">
+        <v>381</v>
+      </c>
       <c r="B461" s="6" t="s">
         <v>394</v>
       </c>
@@ -8174,7 +8423,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="2:4" ht="21">
+    <row r="462" spans="1:4" ht="21">
+      <c r="A462">
+        <v>382</v>
+      </c>
       <c r="B462" s="6" t="s">
         <v>394</v>
       </c>
@@ -8185,7 +8437,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="2:4" ht="21">
+    <row r="463" spans="1:4" ht="21">
+      <c r="A463">
+        <v>383</v>
+      </c>
       <c r="B463" s="6" t="s">
         <v>394</v>
       </c>
@@ -8196,7 +8451,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="2:4" ht="21">
+    <row r="464" spans="1:4" ht="21">
+      <c r="A464">
+        <v>384</v>
+      </c>
       <c r="B464" s="6" t="s">
         <v>394</v>
       </c>
@@ -8207,7 +8465,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="2:4" ht="21">
+    <row r="465" spans="1:4" ht="21">
+      <c r="A465">
+        <v>385</v>
+      </c>
       <c r="B465" s="6" t="s">
         <v>394</v>
       </c>
@@ -8218,7 +8479,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="2:4" ht="21">
+    <row r="466" spans="1:4" ht="21">
+      <c r="A466">
+        <v>386</v>
+      </c>
       <c r="B466" s="6" t="s">
         <v>394</v>
       </c>
@@ -8229,7 +8493,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="2:4" ht="21">
+    <row r="467" spans="1:4" ht="21">
+      <c r="A467">
+        <v>387</v>
+      </c>
       <c r="B467" s="6" t="s">
         <v>394</v>
       </c>
@@ -8240,7 +8507,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="2:4" ht="21">
+    <row r="468" spans="1:4" ht="21">
+      <c r="A468">
+        <v>388</v>
+      </c>
       <c r="B468" s="6" t="s">
         <v>394</v>
       </c>
@@ -8251,7 +8521,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="2:4" ht="21">
+    <row r="469" spans="1:4" ht="21">
+      <c r="A469">
+        <v>389</v>
+      </c>
       <c r="B469" s="6" t="s">
         <v>394</v>
       </c>
@@ -8262,16 +8535,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="2:4" ht="21">
+    <row r="470" spans="1:4" ht="21">
       <c r="C470" s="8"/>
       <c r="D470" s="9"/>
     </row>
-    <row r="471" spans="2:4" ht="21">
+    <row r="471" spans="1:4" ht="21">
       <c r="B471" s="6"/>
       <c r="C471" s="8"/>
       <c r="D471" s="9"/>
     </row>
-    <row r="472" spans="2:4" ht="21">
+    <row r="472" spans="1:4" ht="21">
+      <c r="A472">
+        <v>439</v>
+      </c>
       <c r="B472" s="6" t="s">
         <v>454</v>
       </c>
@@ -8282,7 +8558,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="2:4" ht="21">
+    <row r="473" spans="1:4" ht="21">
+      <c r="A473">
+        <v>440</v>
+      </c>
       <c r="B473" s="6" t="s">
         <v>454</v>
       </c>
@@ -8293,7 +8572,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="2:4" ht="21">
+    <row r="474" spans="1:4" ht="21">
+      <c r="A474">
+        <v>441</v>
+      </c>
       <c r="B474" s="6" t="s">
         <v>454</v>
       </c>
@@ -8304,7 +8586,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="2:4" ht="21">
+    <row r="475" spans="1:4" ht="21">
+      <c r="A475">
+        <v>442</v>
+      </c>
       <c r="B475" s="6" t="s">
         <v>454</v>
       </c>
@@ -8315,7 +8600,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="2:4" ht="21">
+    <row r="476" spans="1:4" ht="21">
+      <c r="A476">
+        <v>443</v>
+      </c>
       <c r="B476" s="6" t="s">
         <v>454</v>
       </c>
@@ -8326,7 +8614,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="2:4" ht="21">
+    <row r="477" spans="1:4" ht="21">
+      <c r="A477">
+        <v>445</v>
+      </c>
       <c r="B477" s="6" t="s">
         <v>454</v>
       </c>
@@ -8337,7 +8628,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="2:4" ht="21">
+    <row r="478" spans="1:4" ht="21">
+      <c r="A478">
+        <v>446</v>
+      </c>
       <c r="B478" s="6" t="s">
         <v>454</v>
       </c>
@@ -8348,7 +8642,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="2:4" ht="21">
+    <row r="479" spans="1:4" ht="21">
+      <c r="A479">
+        <v>447</v>
+      </c>
       <c r="B479" s="6" t="s">
         <v>454</v>
       </c>
@@ -8359,7 +8656,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="2:4" ht="21">
+    <row r="480" spans="1:4" ht="21">
+      <c r="A480">
+        <v>448</v>
+      </c>
       <c r="B480" s="6" t="s">
         <v>454</v>
       </c>
@@ -8370,7 +8670,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="2:4" ht="21">
+    <row r="481" spans="1:4" ht="21">
+      <c r="A481">
+        <v>449</v>
+      </c>
       <c r="B481" s="6" t="s">
         <v>454</v>
       </c>
@@ -8829,23 +9132,31 @@
     <hyperlink ref="C481" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
     <hyperlink ref="C206" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
     <hyperlink ref="C205" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="F187" r:id="rId447" xr:uid="{EE53B277-205C-4364-B4AC-A4C21D47A22E}"/>
-    <hyperlink ref="F182" r:id="rId448" xr:uid="{F3F1152E-FF97-49CD-BF76-50FD8BFC91CE}"/>
-    <hyperlink ref="F223" r:id="rId449" xr:uid="{DD98D22B-3F36-4AED-A589-27275A914741}"/>
-    <hyperlink ref="F165" r:id="rId450" xr:uid="{0A34F150-FA9C-48BA-995D-F3E43C20F37F}"/>
-    <hyperlink ref="F164" r:id="rId451" xr:uid="{49CA8565-971B-421A-B4BA-8379711B1849}"/>
-    <hyperlink ref="F161" r:id="rId452" xr:uid="{EB09B99E-4109-4462-8E1E-F7301883DF8C}"/>
-    <hyperlink ref="F51" r:id="rId453" xr:uid="{39B5B4EF-EC99-41BC-B94E-1B1BE1B236CD}"/>
-    <hyperlink ref="F40" r:id="rId454" xr:uid="{D92E6C55-67A9-4E1C-AD34-811C029D7666}"/>
-    <hyperlink ref="F39" r:id="rId455" xr:uid="{6DDE1B1B-14D4-4E76-81BD-640FFDBDEFE1}"/>
-    <hyperlink ref="F21" r:id="rId456" xr:uid="{C533FC1E-F228-4DBF-9788-03C422F7D4B1}"/>
-    <hyperlink ref="F16" r:id="rId457" xr:uid="{DDAB7A69-2818-48A3-920B-842DE9BEEBEF}"/>
-    <hyperlink ref="F303" r:id="rId458" xr:uid="{477E7E05-0F90-41CC-AC25-3E5BACABE644}"/>
-    <hyperlink ref="F306" r:id="rId459" xr:uid="{5A36384D-42B3-4AF5-AD70-7144403C714E}"/>
-    <hyperlink ref="F316" r:id="rId460" xr:uid="{1EEF5289-C2AB-4D6F-9A49-B1BED6347851}"/>
-    <hyperlink ref="F322" r:id="rId461" xr:uid="{674CB3A4-78EF-44D3-B4CD-9474022ED336}"/>
+    <hyperlink ref="E187" r:id="rId447" xr:uid="{EE53B277-205C-4364-B4AC-A4C21D47A22E}"/>
+    <hyperlink ref="E182" r:id="rId448" xr:uid="{F3F1152E-FF97-49CD-BF76-50FD8BFC91CE}"/>
+    <hyperlink ref="E223" r:id="rId449" xr:uid="{DD98D22B-3F36-4AED-A589-27275A914741}"/>
+    <hyperlink ref="E165" r:id="rId450" xr:uid="{0A34F150-FA9C-48BA-995D-F3E43C20F37F}"/>
+    <hyperlink ref="E164" r:id="rId451" xr:uid="{49CA8565-971B-421A-B4BA-8379711B1849}"/>
+    <hyperlink ref="E161" r:id="rId452" xr:uid="{EB09B99E-4109-4462-8E1E-F7301883DF8C}"/>
+    <hyperlink ref="E51" r:id="rId453" xr:uid="{39B5B4EF-EC99-41BC-B94E-1B1BE1B236CD}"/>
+    <hyperlink ref="E40" r:id="rId454" xr:uid="{D92E6C55-67A9-4E1C-AD34-811C029D7666}"/>
+    <hyperlink ref="E39" r:id="rId455" xr:uid="{6DDE1B1B-14D4-4E76-81BD-640FFDBDEFE1}"/>
+    <hyperlink ref="E21" r:id="rId456" xr:uid="{C533FC1E-F228-4DBF-9788-03C422F7D4B1}"/>
+    <hyperlink ref="E16" r:id="rId457" xr:uid="{DDAB7A69-2818-48A3-920B-842DE9BEEBEF}"/>
+    <hyperlink ref="E303" r:id="rId458" xr:uid="{477E7E05-0F90-41CC-AC25-3E5BACABE644}"/>
+    <hyperlink ref="E306" r:id="rId459" xr:uid="{5A36384D-42B3-4AF5-AD70-7144403C714E}"/>
+    <hyperlink ref="E316" r:id="rId460" xr:uid="{1EEF5289-C2AB-4D6F-9A49-B1BED6347851}"/>
+    <hyperlink ref="E322" r:id="rId461" xr:uid="{674CB3A4-78EF-44D3-B4CD-9474022ED336}"/>
+    <hyperlink ref="E231" r:id="rId462" xr:uid="{45668C1D-E992-4DD1-8FB3-61386452A76A}"/>
+    <hyperlink ref="E105" r:id="rId463" xr:uid="{A1C1A4B1-D886-41B9-A6EF-BE2BA7AEE959}"/>
+    <hyperlink ref="E108" r:id="rId464" xr:uid="{C034BFDE-093E-4619-84D6-3BF2F709BE58}"/>
+    <hyperlink ref="E130" r:id="rId465" xr:uid="{28287B08-EEF4-4D38-8766-650C4B2CC3FC}"/>
+    <hyperlink ref="E133" r:id="rId466" xr:uid="{3B2649A6-284C-4AE1-B7F3-D48D00779ACA}"/>
+    <hyperlink ref="E356" r:id="rId467" xr:uid="{7694E0CF-DBA3-4B22-956C-56FC5C9D905F}"/>
+    <hyperlink ref="E238" r:id="rId468" xr:uid="{3F9BEEC9-EF22-4806-9B55-46EFE5F79555}"/>
+    <hyperlink ref="E240" r:id="rId469" xr:uid="{C8A13845-28A2-42E8-9F68-8C61DF0DB265}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId462"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId470"/>
 </worksheet>
 </file>